--- a/Documentos/Mapeamento das Fontes de Dados/CADASTRO/CADASTRO.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/CADASTRO/CADASTRO.xlsx
@@ -8,26 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\CADASTRO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320D527A-8503-4576-8470-77DBEEECDBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBF63D5-1F9D-4A89-8894-F2491484BC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{D97F085D-39BF-40A8-913E-D715D9E5FECC}"/>
+    <workbookView minimized="1" xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8880" firstSheet="2" activeTab="2" xr2:uid="{D97F085D-39BF-40A8-913E-D715D9E5FECC}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="ESTRUTURA_DW_CADASTRO OFICIAL" sheetId="4" r:id="rId3"/>
     <sheet name="DICIONARIO" sheetId="6" r:id="rId4"/>
-    <sheet name="ESTRUTURA_DW_CADASTRO" sheetId="3" state="hidden" r:id="rId5"/>
-    <sheet name="SAVE" sheetId="5" state="hidden" r:id="rId6"/>
+    <sheet name="Planilha3" sheetId="7" r:id="rId5"/>
+    <sheet name="ESTRUTURA_DW_CADASTRO" sheetId="3" state="hidden" r:id="rId6"/>
+    <sheet name="SAVE" sheetId="5" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'ESTRUTURA_DW_CADASTRO OFICIAL'!$A$1:$P$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'ESTRUTURA_DW_CADASTRO OFICIAL'!$A$1:$P$106</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$C$86</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planilha2!$A$1:$E$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="7" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2254" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="280">
   <si>
     <t>CONT_ID</t>
   </si>
@@ -895,7 +897,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -905,6 +907,20 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -966,7 +982,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -990,11 +1006,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1080,6 +1143,193 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Matheus Alexander Ribeiro Sombra" refreshedDate="45490.847207523148" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="105" xr:uid="{14AFC73B-3BA6-4EC2-B78E-8805F1105859}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:P106" sheet="ESTRUTURA_DW_CADASTRO OFICIAL"/>
+  </cacheSource>
+  <cacheFields count="16">
+    <cacheField name="ID_CADASTRO" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="105"/>
+    </cacheField>
+    <cacheField name="EMPRESA" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="CLIENTE" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="COD_CLIENTE" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="13"/>
+    </cacheField>
+    <cacheField name="COD_CARTEIRA" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="15"/>
+    </cacheField>
+    <cacheField name="COD_OP" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="21"/>
+    </cacheField>
+    <cacheField name="COD_CRM" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="270"/>
+    </cacheField>
+    <cacheField name="CARTEIRA" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="OPERAÇÃO" numFmtId="0">
+      <sharedItems count="104">
+        <s v="ENEL COB NAO ENERGIA"/>
+        <s v="ENEL CE VENCIDOS"/>
+        <s v="ENEL CE UNPAID"/>
+        <s v="ENEL CE PC6"/>
+        <s v="ENEL CE PC5"/>
+        <s v="ENEL CE PC4"/>
+        <s v="ENEL CE PC3 "/>
+        <s v="ENEL CE PC2"/>
+        <s v="ENEL CE PC1"/>
+        <s v="ENEL CE GRUPO A PC1"/>
+        <s v="ENEL CE GOVERNO"/>
+        <s v="ENEL CE DG3"/>
+        <s v="ENEL CE DG2"/>
+        <s v="ENEL CE DG1"/>
+        <s v="ENEL CE DG0"/>
+        <s v="ENEL CE BASE B2B ANTIG"/>
+        <s v="ENEL CE BASE B2B"/>
+        <s v="ENEL - DESENROLA BRASIL"/>
+        <s v="ENEL_RJ_DUMP"/>
+        <s v="ENEL TOI RJ - BACKOFFICE"/>
+        <s v="ENEL RJ UNPAID"/>
+        <s v="ENEL RJ TOI PRE"/>
+        <s v="ENEL RJ TOI"/>
+        <s v="ENEL RJ PC6"/>
+        <s v="ENEL RJ PC5"/>
+        <s v="ENEL RJ PC4"/>
+        <s v="ENEL RJ PC3"/>
+        <s v="ENEL RJ PC2"/>
+        <s v="ENEL RJ PC1"/>
+        <s v="ENEL RJ NAO ENERGIA"/>
+        <s v="ENEL RJ Grupo A "/>
+        <s v="ENEL RJ GOVERNO"/>
+        <s v="ENEL RJ DG3"/>
+        <s v="ENEL RJ DG2"/>
+        <s v="ENEL RJ DG1"/>
+        <s v="ENEL RJ DG0"/>
+        <s v="ENEL RJ BASE B2B"/>
+        <s v="ENEL RJ BAIXA RENDA TOI - AÇÃO EXTRA"/>
+        <s v="DUNNING RJ - TESTE"/>
+        <s v="ENEL SP TOI FAT"/>
+        <s v="ENEL SP TOI"/>
+        <s v="ENEL SP PC6"/>
+        <s v="ENEL SP PC5"/>
+        <s v="ENEL SP PC4"/>
+        <s v="ENEL SP PC3"/>
+        <s v="ENEL SP PC2"/>
+        <s v="ENEL SP PC1"/>
+        <s v="ENEL SP DG3"/>
+        <s v="ENEL SP DG2"/>
+        <s v="ENEL SP DG1"/>
+        <s v="ENEL SP DG0"/>
+        <s v="POC EQUATORIAL"/>
+        <s v="ENEL GO PC6"/>
+        <s v="ENEL GO PC5"/>
+        <s v="ENEL GO PC4"/>
+        <s v="ENEL GO PC3"/>
+        <s v="ENEL GO PC2"/>
+        <s v="ENEL GO PC1"/>
+        <s v="ENEL GO DG0"/>
+        <s v="KEDU"/>
+        <s v="KEDU SAC "/>
+        <s v="KEDU 2022"/>
+        <s v="TESTE"/>
+        <s v="KEDU LEGADO "/>
+        <s v="KEDU TAPETE AZUL"/>
+        <s v="KEDU 2024"/>
+        <s v="KEDU TAPETE AMARELO"/>
+        <s v="TIM - CONTROLE / POS PAGO"/>
+        <s v="TIM - ULTRA FIBRA / LIVE"/>
+        <s v="TIM - OI"/>
+        <s v="TIM - PILOTO DEEPDIVE"/>
+        <s v="TIM - Baixo risco"/>
+        <s v="TIM - Alto risco"/>
+        <s v="TIM_CYBER"/>
+        <s v="COPEL"/>
+        <s v="ALESTA"/>
+        <s v="AGUAS DO BRASIL"/>
+        <s v="AGUAS DO BRASIL FASE 4"/>
+        <s v="AGUAS DO BRASIL FASE 1"/>
+        <s v="AGUAS DO BRASIL_ACAO "/>
+        <s v="CENTRAL NACIONAL UNIMED - PME"/>
+        <s v="CENTRAL NACIONAL UNIMED - PF"/>
+        <s v="FUCAPI"/>
+        <s v="COLEGIO FARIAS BRITO"/>
+        <s v="FGF"/>
+        <s v="COLEGIO FARIAS BRITO - ADM"/>
+        <s v="COLEGIO N S DAS GRAÇAS"/>
+        <s v="FAC - FACULDADE CEARENSE"/>
+        <s v="LOURENÇO FILHO (CENTRO)"/>
+        <s v="LOURENÇO FILHO (PARANGABA)"/>
+        <s v="LOURENÇO FILHO (VEGA MONTESE)"/>
+        <s v="LOURENÇO FILHO (VEGA SUL)"/>
+        <s v="ALARES VIDEOMAR REDE NORDESTE"/>
+        <s v="ALARES CABO SERVICOS DE TELECOMUNICACOES"/>
+        <s v="ALARES TECNET"/>
+        <s v="ALARES WEBBY TELECOM"/>
+        <s v="ALARES WEBBY TECNOLOGIA E GESTAO"/>
+        <s v="M Dias Branco 540dd (2)"/>
+        <s v="M Dias Branco 60dd (1)"/>
+        <s v="M Dias Branco (Piraquê)"/>
+        <s v="UNIMED NOTIFICACAO DIGITAL"/>
+        <s v="Unimed Fortaleza - Cobrança"/>
+        <s v="UNIMED FORTALEZA - COBRANÇA PJ"/>
+        <s v="ENEL X"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="CRM" numFmtId="0">
+      <sharedItems count="2">
+        <s v="ACTYON"/>
+        <s v="VCON"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="SERVIDOR_CRM" numFmtId="0">
+      <sharedItems count="6">
+        <s v="10.10.220.100"/>
+        <s v="45.77.164.133"/>
+        <s v="45.77.94.104"/>
+        <s v="52.179.19.141"/>
+        <s v="45.77.193.154"/>
+        <s v="192.168.10.200"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="BANCO_CRM" numFmtId="0">
+      <sharedItems count="8">
+        <s v="dbActyon_Enel"/>
+        <s v="dbActyon_Kedu"/>
+        <s v="dbActyon_Tim_RPL"/>
+        <s v="MF_cobsystems"/>
+        <s v="dbActyon_COPEL"/>
+        <s v="dbActyon_GAB"/>
+        <s v="dbActyon_Meireles2"/>
+        <s v="dbActyon_MEF"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="TIPO_CRM" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="STATUS" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="DATA_CADASTRO" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-07-17T00:00:00" maxDate="2024-07-18T00:00:00"/>
+    </cacheField>
+    <cacheField name="DATA_ATUALIZAÇÃO" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-07-17T00:00:00" maxDate="2024-07-18T00:00:00"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="77">
   <r>
@@ -2317,7 +2567,2230 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="105">
+  <r>
+    <n v="1"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="200"/>
+    <s v="ENEL CE"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="203"/>
+    <s v="ENEL CE"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="189"/>
+    <s v="ENEL CE"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="176"/>
+    <s v="ENEL CE"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="175"/>
+    <s v="ENEL CE"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="6"/>
+    <n v="116"/>
+    <s v="ENEL CE"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="7"/>
+    <n v="91"/>
+    <s v="ENEL CE"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="8"/>
+    <n v="115"/>
+    <s v="ENEL CE"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="9"/>
+    <n v="114"/>
+    <s v="ENEL CE"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="10"/>
+    <n v="93"/>
+    <s v="ENEL CE"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="11"/>
+    <n v="192"/>
+    <s v="ENEL CE"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="12"/>
+    <n v="171"/>
+    <s v="ENEL CE"/>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="13"/>
+    <n v="170"/>
+    <s v="ENEL CE"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="14"/>
+    <n v="169"/>
+    <s v="ENEL CE"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="15"/>
+    <n v="168"/>
+    <s v="ENEL CE"/>
+    <x v="14"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="16"/>
+    <n v="118"/>
+    <s v="ENEL CE"/>
+    <x v="15"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="INATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="17"/>
+    <n v="205"/>
+    <s v="ENEL CE"/>
+    <x v="16"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="INATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="18"/>
+    <n v="206"/>
+    <s v="ENEL CE"/>
+    <x v="17"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="INATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="193"/>
+    <s v="ENEL RJ"/>
+    <x v="18"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="INATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="198"/>
+    <s v="ENEL RJ"/>
+    <x v="19"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="207"/>
+    <s v="ENEL RJ"/>
+    <x v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="199"/>
+    <s v="ENEL RJ"/>
+    <x v="21"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="135"/>
+    <s v="ENEL RJ"/>
+    <x v="22"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="6"/>
+    <n v="178"/>
+    <s v="ENEL RJ"/>
+    <x v="23"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="7"/>
+    <n v="177"/>
+    <s v="ENEL RJ"/>
+    <x v="24"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="112"/>
+    <s v="ENEL RJ"/>
+    <x v="25"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="9"/>
+    <n v="92"/>
+    <s v="ENEL RJ"/>
+    <x v="26"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="10"/>
+    <n v="126"/>
+    <s v="ENEL RJ"/>
+    <x v="27"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="11"/>
+    <n v="124"/>
+    <s v="ENEL RJ"/>
+    <x v="28"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="12"/>
+    <n v="202"/>
+    <s v="ENEL RJ"/>
+    <x v="29"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="13"/>
+    <n v="129"/>
+    <s v="ENEL RJ"/>
+    <x v="30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="14"/>
+    <n v="142"/>
+    <s v="ENEL RJ"/>
+    <x v="31"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="33"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="15"/>
+    <n v="163"/>
+    <s v="ENEL RJ"/>
+    <x v="32"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="34"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="16"/>
+    <n v="162"/>
+    <s v="ENEL RJ"/>
+    <x v="33"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="17"/>
+    <n v="161"/>
+    <s v="ENEL RJ"/>
+    <x v="34"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="18"/>
+    <n v="160"/>
+    <s v="ENEL RJ"/>
+    <x v="35"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="37"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="19"/>
+    <n v="94"/>
+    <s v="ENEL RJ"/>
+    <x v="36"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="INATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="20"/>
+    <n v="196"/>
+    <s v="ENEL RJ"/>
+    <x v="37"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="INATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="39"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="21"/>
+    <n v="197"/>
+    <s v="ENEL RJ"/>
+    <x v="38"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="INATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="187"/>
+    <s v="ENEL SP"/>
+    <x v="39"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="41"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="159"/>
+    <s v="ENEL SP"/>
+    <x v="40"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="42"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="152"/>
+    <s v="ENEL SP"/>
+    <x v="41"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="43"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="151"/>
+    <s v="ENEL SP"/>
+    <x v="42"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="44"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="150"/>
+    <s v="ENEL SP"/>
+    <x v="43"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="45"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="6"/>
+    <n v="149"/>
+    <s v="ENEL SP"/>
+    <x v="44"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="46"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="7"/>
+    <n v="148"/>
+    <s v="ENEL SP"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="47"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="8"/>
+    <n v="147"/>
+    <s v="ENEL SP"/>
+    <x v="46"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="48"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="9"/>
+    <n v="157"/>
+    <s v="ENEL SP"/>
+    <x v="47"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="49"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="10"/>
+    <n v="156"/>
+    <s v="ENEL SP"/>
+    <x v="48"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="11"/>
+    <n v="155"/>
+    <s v="ENEL SP"/>
+    <x v="49"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="51"/>
+    <s v="MF"/>
+    <s v="ENEL"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="12"/>
+    <n v="154"/>
+    <s v="ENEL SP"/>
+    <x v="50"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="52"/>
+    <s v="MF"/>
+    <s v="EQUATORIAL"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="201"/>
+    <s v="EQUATORIAL"/>
+    <x v="51"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="53"/>
+    <s v="MF"/>
+    <s v="EQUATORIAL"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="174"/>
+    <s v="EQUATORIAL"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="54"/>
+    <s v="MF"/>
+    <s v="EQUATORIAL"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="173"/>
+    <s v="EQUATORIAL"/>
+    <x v="53"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <s v="MF"/>
+    <s v="EQUATORIAL"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="172"/>
+    <s v="EQUATORIAL"/>
+    <x v="54"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="56"/>
+    <s v="MF"/>
+    <s v="EQUATORIAL"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="119"/>
+    <s v="EQUATORIAL"/>
+    <x v="55"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="57"/>
+    <s v="MF"/>
+    <s v="EQUATORIAL"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="6"/>
+    <n v="122"/>
+    <s v="EQUATORIAL"/>
+    <x v="56"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="58"/>
+    <s v="MF"/>
+    <s v="EQUATORIAL"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="7"/>
+    <n v="121"/>
+    <s v="EQUATORIAL"/>
+    <x v="57"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="59"/>
+    <s v="MF"/>
+    <s v="EQUATORIAL"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="8"/>
+    <n v="164"/>
+    <s v="EQUATORIAL"/>
+    <x v="58"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="60"/>
+    <s v="KEDU"/>
+    <s v="KEDU"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="KEDU"/>
+    <x v="59"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="61"/>
+    <s v="KEDU"/>
+    <s v="KEDU"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="KEDU"/>
+    <x v="60"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="62"/>
+    <s v="KEDU"/>
+    <s v="KEDU"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="3"/>
+    <s v="KEDU"/>
+    <x v="61"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="63"/>
+    <s v="KEDU"/>
+    <s v="KEDU"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="4"/>
+    <s v="KEDU"/>
+    <x v="62"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="SQL SERVER"/>
+    <s v="INATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="64"/>
+    <s v="KEDU"/>
+    <s v="KEDU"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <s v="KEDU"/>
+    <x v="63"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="65"/>
+    <s v="KEDU"/>
+    <s v="KEDU"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="6"/>
+    <n v="6"/>
+    <s v="KEDU"/>
+    <x v="64"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="66"/>
+    <s v="KEDU"/>
+    <s v="KEDU"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="7"/>
+    <n v="7"/>
+    <s v="KEDU"/>
+    <x v="65"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="67"/>
+    <s v="KEDU"/>
+    <s v="KEDU"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="8"/>
+    <n v="8"/>
+    <s v="KEDU"/>
+    <x v="66"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="68"/>
+    <s v="MF"/>
+    <s v="TIM"/>
+    <n v="4"/>
+    <n v="6"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="TIM"/>
+    <x v="67"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="69"/>
+    <s v="MF"/>
+    <s v="TIM"/>
+    <n v="4"/>
+    <n v="6"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="TIM"/>
+    <x v="68"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="70"/>
+    <s v="MF"/>
+    <s v="TIM"/>
+    <n v="4"/>
+    <n v="6"/>
+    <n v="3"/>
+    <n v="3"/>
+    <s v="TIM"/>
+    <x v="69"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="71"/>
+    <s v="MF"/>
+    <s v="TIM"/>
+    <n v="4"/>
+    <n v="6"/>
+    <n v="4"/>
+    <n v="4"/>
+    <s v="TIM"/>
+    <x v="70"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="72"/>
+    <s v="MF"/>
+    <s v="TIM"/>
+    <n v="4"/>
+    <n v="6"/>
+    <n v="5"/>
+    <n v="5"/>
+    <s v="TIM"/>
+    <x v="71"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="73"/>
+    <s v="MF"/>
+    <s v="TIM"/>
+    <n v="4"/>
+    <n v="6"/>
+    <n v="6"/>
+    <n v="6"/>
+    <s v="TIM"/>
+    <x v="72"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="74"/>
+    <s v="MF"/>
+    <s v="TIM"/>
+    <n v="4"/>
+    <n v="6"/>
+    <n v="7"/>
+    <n v="230"/>
+    <s v="TIM"/>
+    <x v="73"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="75"/>
+    <s v="MF"/>
+    <s v="COPEL"/>
+    <n v="5"/>
+    <n v="7"/>
+    <n v="1"/>
+    <n v="195"/>
+    <s v="COPEL"/>
+    <x v="74"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="INATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="76"/>
+    <s v="MF"/>
+    <s v="COPEL"/>
+    <n v="5"/>
+    <n v="7"/>
+    <n v="2"/>
+    <n v="1"/>
+    <s v="COPEL"/>
+    <x v="74"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="77"/>
+    <s v="MF"/>
+    <s v="ALESTA"/>
+    <n v="6"/>
+    <n v="8"/>
+    <n v="1"/>
+    <n v="204"/>
+    <s v="ALESTA"/>
+    <x v="75"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="SQL SERVER"/>
+    <s v="INATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="78"/>
+    <s v="MF"/>
+    <s v="GAB"/>
+    <n v="7"/>
+    <n v="9"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="GAB"/>
+    <x v="76"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="79"/>
+    <s v="MF"/>
+    <s v="GAB"/>
+    <n v="7"/>
+    <n v="9"/>
+    <n v="2"/>
+    <n v="2"/>
+    <s v="GAB"/>
+    <x v="77"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="80"/>
+    <s v="MF"/>
+    <s v="GAB"/>
+    <n v="7"/>
+    <n v="9"/>
+    <n v="3"/>
+    <n v="3"/>
+    <s v="GAB"/>
+    <x v="78"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="81"/>
+    <s v="MF"/>
+    <s v="GAB"/>
+    <n v="7"/>
+    <n v="9"/>
+    <n v="4"/>
+    <n v="4"/>
+    <s v="GAB"/>
+    <x v="79"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="82"/>
+    <s v="MF"/>
+    <s v="CNU"/>
+    <n v="8"/>
+    <n v="10"/>
+    <n v="1"/>
+    <n v="224"/>
+    <s v="CNU"/>
+    <x v="80"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="83"/>
+    <s v="MF"/>
+    <s v="CNU"/>
+    <n v="8"/>
+    <n v="10"/>
+    <n v="2"/>
+    <n v="229"/>
+    <s v="CNU"/>
+    <x v="81"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="84"/>
+    <s v="MF"/>
+    <s v="EDUCAÇÂO"/>
+    <n v="9"/>
+    <n v="11"/>
+    <n v="1"/>
+    <n v="50"/>
+    <s v="EDUCAÇÂO"/>
+    <x v="82"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="85"/>
+    <s v="MF"/>
+    <s v="EDUCAÇÂO"/>
+    <n v="9"/>
+    <n v="11"/>
+    <n v="2"/>
+    <n v="61"/>
+    <s v="EDUCAÇÂO"/>
+    <x v="83"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="86"/>
+    <s v="MF"/>
+    <s v="EDUCAÇÂO"/>
+    <n v="9"/>
+    <n v="11"/>
+    <n v="3"/>
+    <n v="88"/>
+    <s v="EDUCAÇÂO"/>
+    <x v="84"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="87"/>
+    <s v="MF"/>
+    <s v="EDUCAÇÂO"/>
+    <n v="9"/>
+    <n v="11"/>
+    <n v="4"/>
+    <n v="157"/>
+    <s v="EDUCAÇÂO"/>
+    <x v="85"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="88"/>
+    <s v="MF"/>
+    <s v="EDUCAÇÂO"/>
+    <n v="9"/>
+    <n v="11"/>
+    <n v="5"/>
+    <n v="197"/>
+    <s v="EDUCAÇÂO"/>
+    <x v="86"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="89"/>
+    <s v="MF"/>
+    <s v="EDUCAÇÂO"/>
+    <n v="9"/>
+    <n v="11"/>
+    <n v="6"/>
+    <n v="237"/>
+    <s v="EDUCAÇÂO"/>
+    <x v="87"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="90"/>
+    <s v="MF"/>
+    <s v="EDUCAÇÂO"/>
+    <n v="9"/>
+    <n v="11"/>
+    <n v="7"/>
+    <n v="254"/>
+    <s v="EDUCAÇÂO"/>
+    <x v="88"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="91"/>
+    <s v="MF"/>
+    <s v="EDUCAÇÂO"/>
+    <n v="9"/>
+    <n v="11"/>
+    <n v="8"/>
+    <n v="256"/>
+    <s v="EDUCAÇÂO"/>
+    <x v="89"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="92"/>
+    <s v="MF"/>
+    <s v="EDUCAÇÂO"/>
+    <n v="9"/>
+    <n v="11"/>
+    <n v="9"/>
+    <n v="257"/>
+    <s v="EDUCAÇÂO"/>
+    <x v="90"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="93"/>
+    <s v="MF"/>
+    <s v="EDUCAÇÂO"/>
+    <n v="9"/>
+    <n v="11"/>
+    <n v="10"/>
+    <n v="258"/>
+    <s v="EDUCAÇÂO"/>
+    <x v="91"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="94"/>
+    <s v="MF"/>
+    <s v="ALARES"/>
+    <n v="10"/>
+    <n v="12"/>
+    <n v="1"/>
+    <n v="266"/>
+    <s v="ALARES"/>
+    <x v="92"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="7"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="95"/>
+    <s v="MF"/>
+    <s v="ALARES"/>
+    <n v="10"/>
+    <n v="12"/>
+    <n v="2"/>
+    <n v="267"/>
+    <s v="ALARES"/>
+    <x v="93"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="7"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="96"/>
+    <s v="MF"/>
+    <s v="ALARES"/>
+    <n v="10"/>
+    <n v="12"/>
+    <n v="3"/>
+    <n v="268"/>
+    <s v="ALARES"/>
+    <x v="94"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="7"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="97"/>
+    <s v="MF"/>
+    <s v="ALARES"/>
+    <n v="10"/>
+    <n v="12"/>
+    <n v="4"/>
+    <n v="269"/>
+    <s v="ALARES"/>
+    <x v="95"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="7"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="98"/>
+    <s v="MF"/>
+    <s v="ALARES"/>
+    <n v="10"/>
+    <n v="12"/>
+    <n v="5"/>
+    <n v="270"/>
+    <s v="ALARES"/>
+    <x v="96"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="7"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="99"/>
+    <s v="MF"/>
+    <s v="MDIAS BRANCO"/>
+    <n v="11"/>
+    <n v="13"/>
+    <n v="1"/>
+    <n v="177"/>
+    <s v="MDIAS BRANCO"/>
+    <x v="97"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="100"/>
+    <s v="MF"/>
+    <s v="MDIAS BRANCO"/>
+    <n v="11"/>
+    <n v="13"/>
+    <n v="2"/>
+    <n v="178"/>
+    <s v="MDIAS BRANCO"/>
+    <x v="98"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="101"/>
+    <s v="MF"/>
+    <s v="MDIAS BRANCO"/>
+    <n v="11"/>
+    <n v="13"/>
+    <n v="3"/>
+    <n v="181"/>
+    <s v="MDIAS BRANCO"/>
+    <x v="99"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="102"/>
+    <s v="ALLDESK"/>
+    <s v="UNIMED"/>
+    <n v="12"/>
+    <n v="14"/>
+    <n v="1"/>
+    <n v="67"/>
+    <s v="UNIMED NOTIFICAÇÕES"/>
+    <x v="100"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="6"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="103"/>
+    <s v="ALLDESK"/>
+    <s v="UNIMED"/>
+    <n v="12"/>
+    <n v="14"/>
+    <n v="2"/>
+    <n v="13"/>
+    <s v="UNIMED COB"/>
+    <x v="101"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="6"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="104"/>
+    <s v="ALLDESK"/>
+    <s v="UNIMED"/>
+    <n v="12"/>
+    <n v="14"/>
+    <n v="3"/>
+    <n v="45"/>
+    <s v="UNIMED COB"/>
+    <x v="102"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="6"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="105"/>
+    <s v="ALLDESK"/>
+    <s v="ENEL X"/>
+    <n v="13"/>
+    <n v="15"/>
+    <n v="1"/>
+    <n v="66"/>
+    <s v="ENEL X"/>
+    <x v="103"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="6"/>
+    <s v="SQL SERVER"/>
+    <s v="ATIVO"/>
+    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-17T00:00:00"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B8918806-DD0E-4B54-A330-E9BDFB54C70F}" name="Tabela dinâmica1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F4:F20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="16">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="105">
+        <item x="76"/>
+        <item x="78"/>
+        <item x="77"/>
+        <item x="79"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="92"/>
+        <item x="96"/>
+        <item x="95"/>
+        <item x="75"/>
+        <item x="81"/>
+        <item x="80"/>
+        <item x="83"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="74"/>
+        <item x="38"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="58"/>
+        <item x="57"/>
+        <item x="56"/>
+        <item x="55"/>
+        <item x="54"/>
+        <item x="53"/>
+        <item x="52"/>
+        <item x="37"/>
+        <item x="36"/>
+        <item x="35"/>
+        <item x="34"/>
+        <item x="33"/>
+        <item x="32"/>
+        <item x="31"/>
+        <item x="30"/>
+        <item x="29"/>
+        <item x="28"/>
+        <item x="27"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="21"/>
+        <item x="20"/>
+        <item x="50"/>
+        <item x="49"/>
+        <item x="48"/>
+        <item x="47"/>
+        <item x="46"/>
+        <item x="45"/>
+        <item x="44"/>
+        <item x="43"/>
+        <item x="42"/>
+        <item x="41"/>
+        <item x="40"/>
+        <item x="39"/>
+        <item x="19"/>
+        <item x="103"/>
+        <item x="18"/>
+        <item x="87"/>
+        <item x="84"/>
+        <item x="82"/>
+        <item x="59"/>
+        <item x="61"/>
+        <item x="65"/>
+        <item x="63"/>
+        <item x="60"/>
+        <item x="66"/>
+        <item x="64"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="99"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="51"/>
+        <item x="62"/>
+        <item x="72"/>
+        <item x="71"/>
+        <item x="67"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="68"/>
+        <item x="73"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="100"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="10"/>
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="16">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="9" hier="-1"/>
+  </pageFields>
+  <formats count="8">
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="10" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="11" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="10" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="11" count="1">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="10" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="11" count="1">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="10" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="11" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="10" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="11" count="1">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="10" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="11" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="10" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="11" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="10" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="11" count="2">
+            <x v="2"/>
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{961195A6-F226-49A4-803D-913F68068479}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="14">
@@ -2711,7 +5184,7 @@
       <selection activeCell="B27" sqref="B27:B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.33203125" style="2" bestFit="1" customWidth="1"/>
@@ -2726,7 +5199,7 @@
     <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2758,7 +5231,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>133</v>
       </c>
@@ -2790,7 +5263,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>168</v>
       </c>
@@ -2811,7 +5284,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>169</v>
       </c>
@@ -2828,7 +5301,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>170</v>
       </c>
@@ -2839,7 +5312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>171</v>
       </c>
@@ -2850,7 +5323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>130</v>
       </c>
@@ -2861,7 +5334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>192</v>
       </c>
@@ -2872,7 +5345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>131</v>
       </c>
@@ -2883,7 +5356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>110</v>
       </c>
@@ -2894,7 +5367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>93</v>
       </c>
@@ -2905,7 +5378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>95</v>
       </c>
@@ -2916,7 +5389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>114</v>
       </c>
@@ -2927,7 +5400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>115</v>
       </c>
@@ -2938,7 +5411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>91</v>
       </c>
@@ -2949,7 +5422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>116</v>
       </c>
@@ -2960,7 +5433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>175</v>
       </c>
@@ -2971,7 +5444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>176</v>
       </c>
@@ -2982,7 +5455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>118</v>
       </c>
@@ -2993,7 +5466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>144</v>
       </c>
@@ -3004,7 +5477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>127</v>
       </c>
@@ -3015,7 +5488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>188</v>
       </c>
@@ -3026,7 +5499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>189</v>
       </c>
@@ -3037,7 +5510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>186</v>
       </c>
@@ -3048,7 +5521,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>164</v>
       </c>
@@ -3059,7 +5532,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>165</v>
       </c>
@@ -3070,7 +5543,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>166</v>
       </c>
@@ -3081,7 +5554,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>167</v>
       </c>
@@ -3092,7 +5565,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>121</v>
       </c>
@@ -3103,7 +5576,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>122</v>
       </c>
@@ -3114,7 +5587,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>179</v>
       </c>
@@ -3125,7 +5598,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>119</v>
       </c>
@@ -3136,7 +5609,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>172</v>
       </c>
@@ -3147,7 +5620,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>173</v>
       </c>
@@ -3158,7 +5631,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>174</v>
       </c>
@@ -3169,7 +5642,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>141</v>
       </c>
@@ -3180,7 +5653,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>120</v>
       </c>
@@ -3191,7 +5664,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>180</v>
       </c>
@@ -3202,7 +5675,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>181</v>
       </c>
@@ -3213,7 +5686,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>191</v>
       </c>
@@ -3224,7 +5697,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>123</v>
       </c>
@@ -3235,7 +5708,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>184</v>
       </c>
@@ -3246,7 +5719,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>182</v>
       </c>
@@ -3257,7 +5730,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>183</v>
       </c>
@@ -3268,7 +5741,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>143</v>
       </c>
@@ -3279,7 +5752,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>128</v>
       </c>
@@ -3290,7 +5763,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>94</v>
       </c>
@@ -3301,7 +5774,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48" s="1">
         <v>107</v>
       </c>
@@ -3312,7 +5785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>104</v>
       </c>
@@ -3323,7 +5796,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>103</v>
       </c>
@@ -3334,7 +5807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>105</v>
       </c>
@@ -3345,7 +5818,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>96</v>
       </c>
@@ -3356,7 +5829,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>145</v>
       </c>
@@ -3367,7 +5840,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54" s="1">
         <v>134</v>
       </c>
@@ -3378,7 +5851,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>146</v>
       </c>
@@ -3389,7 +5862,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3">
       <c r="A56" s="1">
         <v>132</v>
       </c>
@@ -3400,7 +5873,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57" s="1">
         <v>160</v>
       </c>
@@ -3411,7 +5884,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58" s="1">
         <v>161</v>
       </c>
@@ -3422,7 +5895,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>162</v>
       </c>
@@ -3433,7 +5906,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="A60" s="1">
         <v>163</v>
       </c>
@@ -3444,7 +5917,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61" s="1">
         <v>142</v>
       </c>
@@ -3455,7 +5928,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3">
       <c r="A62" s="1">
         <v>129</v>
       </c>
@@ -3466,7 +5939,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3">
       <c r="A63" s="1">
         <v>124</v>
       </c>
@@ -3477,7 +5950,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3">
       <c r="A64" s="1">
         <v>126</v>
       </c>
@@ -3488,7 +5961,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65" s="1">
         <v>92</v>
       </c>
@@ -3499,7 +5972,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66" s="1">
         <v>112</v>
       </c>
@@ -3510,7 +5983,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3">
       <c r="A67" s="1">
         <v>177</v>
       </c>
@@ -3521,7 +5994,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3">
       <c r="A68" s="1">
         <v>178</v>
       </c>
@@ -3532,7 +6005,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69" s="1">
         <v>153</v>
       </c>
@@ -3543,7 +6016,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70" s="1">
         <v>135</v>
       </c>
@@ -3554,7 +6027,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3">
       <c r="A71" s="1">
         <v>154</v>
       </c>
@@ -3565,7 +6038,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3">
       <c r="A72" s="1">
         <v>155</v>
       </c>
@@ -3576,7 +6049,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73" s="1">
         <v>156</v>
       </c>
@@ -3587,7 +6060,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74" s="1">
         <v>157</v>
       </c>
@@ -3598,7 +6071,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75" s="1">
         <v>147</v>
       </c>
@@ -3609,7 +6082,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3">
       <c r="A76" s="1">
         <v>148</v>
       </c>
@@ -3620,7 +6093,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3">
       <c r="A77" s="1">
         <v>149</v>
       </c>
@@ -3631,7 +6104,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3">
       <c r="A78" s="1">
         <v>150</v>
       </c>
@@ -3642,7 +6115,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79" s="1">
         <v>151</v>
       </c>
@@ -3653,7 +6126,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3">
       <c r="A80" s="1">
         <v>152</v>
       </c>
@@ -3664,7 +6137,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3">
       <c r="A81" s="1">
         <v>159</v>
       </c>
@@ -3675,7 +6148,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3">
       <c r="A82" s="1">
         <v>187</v>
       </c>
@@ -3686,7 +6159,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3">
       <c r="A83" s="1">
         <v>109</v>
       </c>
@@ -3697,7 +6170,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3">
       <c r="A84" s="1">
         <v>111</v>
       </c>
@@ -3708,7 +6181,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3">
       <c r="A85" s="1">
         <v>106</v>
       </c>
@@ -3719,7 +6192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3">
       <c r="A86" s="1">
         <v>108</v>
       </c>
@@ -3743,7 +6216,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61.21875" bestFit="1" customWidth="1"/>
@@ -3752,7 +6225,7 @@
     <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>92</v>
       </c>
@@ -3769,7 +6242,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>454</v>
       </c>
@@ -3786,7 +6259,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>461</v>
       </c>
@@ -3803,7 +6276,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>353</v>
       </c>
@@ -3820,7 +6293,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>335</v>
       </c>
@@ -3837,7 +6310,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>211</v>
       </c>
@@ -3854,7 +6327,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>346</v>
       </c>
@@ -3871,7 +6344,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>413</v>
       </c>
@@ -3888,7 +6361,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>319</v>
       </c>
@@ -3905,7 +6378,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>492</v>
       </c>
@@ -3922,7 +6395,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>415</v>
       </c>
@@ -3939,7 +6412,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>416</v>
       </c>
@@ -3956,7 +6429,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>417</v>
       </c>
@@ -3973,7 +6446,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>418</v>
       </c>
@@ -3990,7 +6463,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>419</v>
       </c>
@@ -4007,7 +6480,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>460</v>
       </c>
@@ -4024,7 +6497,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>340</v>
       </c>
@@ -4041,7 +6514,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>515</v>
       </c>
@@ -4058,7 +6531,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>516</v>
       </c>
@@ -4075,7 +6548,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>517</v>
       </c>
@@ -4092,7 +6565,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>518</v>
       </c>
@@ -4109,7 +6582,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>519</v>
       </c>
@@ -4126,7 +6599,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>520</v>
       </c>
@@ -4143,7 +6616,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>543</v>
       </c>
@@ -4160,7 +6633,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>547</v>
       </c>
@@ -4177,7 +6650,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>548</v>
       </c>
@@ -4194,7 +6667,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>573</v>
       </c>
@@ -4211,7 +6684,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>574</v>
       </c>
@@ -4228,7 +6701,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>575</v>
       </c>
@@ -4255,13 +6728,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2504A63E-7004-434E-A3AD-E1BB16842089}">
   <dimension ref="A1:P106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="I70" sqref="I70"/>
+      <selection pane="bottomLeft" activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.21875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
@@ -4282,7 +6755,7 @@
     <col min="17" max="16384" width="10.21875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="24" customHeight="1" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>150</v>
       </c>
@@ -4332,7 +6805,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -4377,14 +6850,14 @@
       </c>
       <c r="O2" s="6">
         <f t="shared" ref="O2:P21" ca="1" si="0">TODAY()</f>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P2" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -4429,14 +6902,14 @@
       </c>
       <c r="O3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -4481,14 +6954,14 @@
       </c>
       <c r="O4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -4533,14 +7006,14 @@
       </c>
       <c r="O5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -4585,14 +7058,14 @@
       </c>
       <c r="O6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -4637,14 +7110,14 @@
       </c>
       <c r="O7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -4689,14 +7162,14 @@
       </c>
       <c r="O8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -4741,14 +7214,14 @@
       </c>
       <c r="O9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -4793,14 +7266,14 @@
       </c>
       <c r="O10" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P10" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -4845,14 +7318,14 @@
       </c>
       <c r="O11" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P11" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -4897,14 +7370,14 @@
       </c>
       <c r="O12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -4949,14 +7422,14 @@
       </c>
       <c r="O13" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P13" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -5001,14 +7474,14 @@
       </c>
       <c r="O14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -5053,14 +7526,14 @@
       </c>
       <c r="O15" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P15" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -5105,14 +7578,14 @@
       </c>
       <c r="O16" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P16" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -5157,14 +7630,14 @@
       </c>
       <c r="O17" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P17" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -5209,14 +7682,14 @@
       </c>
       <c r="O18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -5261,14 +7734,14 @@
       </c>
       <c r="O19" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P19" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -5313,14 +7786,14 @@
       </c>
       <c r="O20" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P20" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -5365,14 +7838,14 @@
       </c>
       <c r="O21" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P21" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -5417,14 +7890,14 @@
       </c>
       <c r="O22" s="6">
         <f t="shared" ref="O22:P41" ca="1" si="1">TODAY()</f>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P22" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -5469,14 +7942,14 @@
       </c>
       <c r="O23" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P23" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -5521,14 +7994,14 @@
       </c>
       <c r="O24" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P24" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -5573,14 +8046,14 @@
       </c>
       <c r="O25" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P25" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -5625,14 +8098,14 @@
       </c>
       <c r="O26" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P26" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -5677,14 +8150,14 @@
       </c>
       <c r="O27" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P27" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -5729,14 +8202,14 @@
       </c>
       <c r="O28" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P28" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -5781,14 +8254,14 @@
       </c>
       <c r="O29" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P29" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -5833,14 +8306,14 @@
       </c>
       <c r="O30" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P30" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -5885,14 +8358,14 @@
       </c>
       <c r="O31" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P31" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -5937,14 +8410,14 @@
       </c>
       <c r="O32" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P32" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -5989,14 +8462,14 @@
       </c>
       <c r="O33" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P33" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -6041,14 +8514,14 @@
       </c>
       <c r="O34" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P34" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -6093,14 +8566,14 @@
       </c>
       <c r="O35" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P35" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -6145,14 +8618,14 @@
       </c>
       <c r="O36" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P36" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -6197,14 +8670,14 @@
       </c>
       <c r="O37" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P37" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -6249,14 +8722,14 @@
       </c>
       <c r="O38" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P38" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -6301,14 +8774,14 @@
       </c>
       <c r="O39" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P39" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -6353,14 +8826,14 @@
       </c>
       <c r="O40" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P40" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -6405,14 +8878,14 @@
       </c>
       <c r="O41" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P41" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -6457,14 +8930,14 @@
       </c>
       <c r="O42" s="6">
         <f t="shared" ref="O42:P61" ca="1" si="2">TODAY()</f>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P42" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -6509,14 +8982,14 @@
       </c>
       <c r="O43" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P43" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -6561,14 +9034,14 @@
       </c>
       <c r="O44" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P44" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -6613,14 +9086,14 @@
       </c>
       <c r="O45" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P45" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -6665,14 +9138,14 @@
       </c>
       <c r="O46" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P46" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -6717,14 +9190,14 @@
       </c>
       <c r="O47" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P47" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -6769,14 +9242,14 @@
       </c>
       <c r="O48" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P48" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -6821,14 +9294,14 @@
       </c>
       <c r="O49" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P49" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -6873,14 +9346,14 @@
       </c>
       <c r="O50" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P50" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -6925,14 +9398,14 @@
       </c>
       <c r="O51" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P51" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -6977,14 +9450,14 @@
       </c>
       <c r="O52" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P52" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -7029,14 +9502,14 @@
       </c>
       <c r="O53" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P53" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -7081,14 +9554,14 @@
       </c>
       <c r="O54" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P54" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -7133,14 +9606,14 @@
       </c>
       <c r="O55" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P55" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -7185,14 +9658,14 @@
       </c>
       <c r="O56" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P56" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -7237,14 +9710,14 @@
       </c>
       <c r="O57" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P57" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -7289,14 +9762,14 @@
       </c>
       <c r="O58" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P58" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -7341,14 +9814,14 @@
       </c>
       <c r="O59" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P59" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -7393,14 +9866,14 @@
       </c>
       <c r="O60" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P60" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -7445,14 +9918,14 @@
       </c>
       <c r="O61" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P61" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -7497,14 +9970,14 @@
       </c>
       <c r="O62" s="6">
         <f t="shared" ref="O62:P78" ca="1" si="3">TODAY()</f>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P62" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -7549,14 +10022,14 @@
       </c>
       <c r="O63" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P63" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -7601,14 +10074,14 @@
       </c>
       <c r="O64" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P64" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -7653,14 +10126,14 @@
       </c>
       <c r="O65" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P65" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -7705,14 +10178,14 @@
       </c>
       <c r="O66" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P66" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -7757,14 +10230,14 @@
       </c>
       <c r="O67" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P67" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -7809,14 +10282,14 @@
       </c>
       <c r="O68" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P68" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -7861,14 +10334,14 @@
       </c>
       <c r="O69" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P69" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -7913,14 +10386,14 @@
       </c>
       <c r="O70" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P70" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -7965,14 +10438,14 @@
       </c>
       <c r="O71" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P71" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -8017,14 +10490,14 @@
       </c>
       <c r="O72" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P72" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -8069,14 +10542,14 @@
       </c>
       <c r="O73" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P73" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -8121,14 +10594,14 @@
       </c>
       <c r="O74" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P74" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -8173,14 +10646,14 @@
       </c>
       <c r="O75" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P75" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -8225,14 +10698,14 @@
       </c>
       <c r="O76" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P76" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -8277,14 +10750,14 @@
       </c>
       <c r="O77" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P77" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -8329,14 +10802,14 @@
       </c>
       <c r="O78" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P78" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -8381,14 +10854,14 @@
       </c>
       <c r="O79" s="6">
         <f t="shared" ref="O79:P106" ca="1" si="4">TODAY()</f>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P79" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -8433,14 +10906,14 @@
       </c>
       <c r="O80" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P80" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -8485,14 +10958,14 @@
       </c>
       <c r="O81" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P81" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -8537,14 +11010,14 @@
       </c>
       <c r="O82" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P82" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -8589,14 +11062,14 @@
       </c>
       <c r="O83" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P83" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -8641,14 +11114,14 @@
       </c>
       <c r="O84" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P84" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -8693,14 +11166,14 @@
       </c>
       <c r="O85" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P85" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -8745,14 +11218,14 @@
       </c>
       <c r="O86" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P86" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -8797,14 +11270,14 @@
       </c>
       <c r="O87" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P87" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -8849,14 +11322,14 @@
       </c>
       <c r="O88" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P88" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -8901,14 +11374,14 @@
       </c>
       <c r="O89" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P89" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -8953,14 +11426,14 @@
       </c>
       <c r="O90" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P90" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -9005,14 +11478,14 @@
       </c>
       <c r="O91" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P91" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -9057,14 +11530,14 @@
       </c>
       <c r="O92" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P92" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -9109,14 +11582,14 @@
       </c>
       <c r="O93" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P93" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -9161,14 +11634,14 @@
       </c>
       <c r="O94" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P94" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -9213,14 +11686,14 @@
       </c>
       <c r="O95" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P95" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -9265,14 +11738,14 @@
       </c>
       <c r="O96" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P96" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -9317,14 +11790,14 @@
       </c>
       <c r="O97" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P97" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -9369,14 +11842,14 @@
       </c>
       <c r="O98" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P98" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -9421,14 +11894,14 @@
       </c>
       <c r="O99" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P99" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -9473,14 +11946,14 @@
       </c>
       <c r="O100" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P100" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -9525,14 +11998,14 @@
       </c>
       <c r="O101" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P101" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -9577,14 +12050,14 @@
       </c>
       <c r="O102" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P102" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -9629,14 +12102,14 @@
       </c>
       <c r="O103" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P103" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -9681,14 +12154,14 @@
       </c>
       <c r="O104" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P104" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -9733,14 +12206,14 @@
       </c>
       <c r="O105" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P105" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -9785,14 +12258,15 @@
       </c>
       <c r="O106" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="P106" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P106" xr:uid="{2504A63E-7004-434E-A3AD-E1BB16842089}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9806,7 +12280,7 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="43.88671875" style="2" bestFit="1" customWidth="1"/>
@@ -9814,7 +12288,7 @@
     <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>222</v>
       </c>
@@ -9825,7 +12299,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>150</v>
       </c>
@@ -9836,7 +12310,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>135</v>
       </c>
@@ -9847,7 +12321,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>219</v>
       </c>
@@ -9858,7 +12332,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>220</v>
       </c>
@@ -9869,7 +12343,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>151</v>
       </c>
@@ -9880,7 +12354,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>152</v>
       </c>
@@ -9891,7 +12365,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="15" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>153</v>
       </c>
@@ -9902,7 +12376,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="15" thickBot="1">
       <c r="A9" s="4" t="s">
         <v>154</v>
       </c>
@@ -9913,7 +12387,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="15" thickBot="1">
       <c r="A10" s="4" t="s">
         <v>155</v>
       </c>
@@ -9930,12 +12404,199 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB10152-AA42-42BA-9D7E-3F8422C34E4E}">
+  <dimension ref="F2:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="6" max="6" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="43.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="30" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="36" max="38" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="48" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="35.77734375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16" bestFit="1" customWidth="1"/>
+    <col min="51" max="54" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="58" max="63" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="67" max="70" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="71" max="76" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="23" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="4" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="86" max="87" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="6" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="26" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="6:7">
+      <c r="F2" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="6:7">
+      <c r="F4" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="6:7">
+      <c r="F5" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="6:7">
+      <c r="F6" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="6:7">
+      <c r="F7" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="6:7">
+      <c r="F8" s="10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="9" spans="6:7">
+      <c r="F9" s="10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="6:7">
+      <c r="F10" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" spans="6:7">
+      <c r="F11" s="10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="6:7">
+      <c r="F12" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="6:7">
+      <c r="F13" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="6:7">
+      <c r="F14" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="6:7">
+      <c r="F15" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="6:7">
+      <c r="F16" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1104F42-6122-4AF9-A63B-0A323A430B6D}">
   <dimension ref="A1:N76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.21875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
@@ -9950,7 +12611,7 @@
     <col min="15" max="16384" width="10.21875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="A1" s="7" t="s">
         <v>151</v>
       </c>
@@ -9970,7 +12631,7 @@
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -9986,7 +12647,7 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" s="7" t="s">
         <v>216</v>
       </c>
@@ -10003,7 +12664,7 @@
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="A4" s="8" t="s">
         <v>210</v>
       </c>
@@ -10021,7 +12682,7 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="A5" s="8" t="s">
         <v>209</v>
       </c>
@@ -10039,7 +12700,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -10057,7 +12718,7 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7" s="8" t="s">
         <v>51</v>
       </c>
@@ -10075,7 +12736,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14">
       <c r="A8" s="8" t="s">
         <v>76</v>
       </c>
@@ -10093,7 +12754,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14">
       <c r="A9" s="8" t="s">
         <v>211</v>
       </c>
@@ -10111,7 +12772,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="A10" s="8" t="s">
         <v>138</v>
       </c>
@@ -10127,7 +12788,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="A11" s="8" t="s">
         <v>184</v>
       </c>
@@ -10143,7 +12804,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14">
       <c r="A12" s="8" t="s">
         <v>217</v>
       </c>
@@ -10154,7 +12815,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -10163,7 +12824,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -10172,7 +12833,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -10187,7 +12848,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -10202,7 +12863,7 @@
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -10217,7 +12878,7 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -10232,7 +12893,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14">
       <c r="A19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -10245,7 +12906,7 @@
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14">
       <c r="A20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -10258,7 +12919,7 @@
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14">
       <c r="A21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -10271,7 +12932,7 @@
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14">
       <c r="A22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -10284,7 +12945,7 @@
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14">
       <c r="A23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -10297,7 +12958,7 @@
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14">
       <c r="A24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -10310,7 +12971,7 @@
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14">
       <c r="A25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -10323,7 +12984,7 @@
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14">
       <c r="A26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -10336,7 +12997,7 @@
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14">
       <c r="A27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -10349,7 +13010,7 @@
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14">
       <c r="A28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -10362,7 +13023,7 @@
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14">
       <c r="A29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -10375,7 +13036,7 @@
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14">
       <c r="A30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -10388,7 +13049,7 @@
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14">
       <c r="A31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -10401,7 +13062,7 @@
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14">
       <c r="A32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -10414,7 +13075,7 @@
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14">
       <c r="A33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -10427,7 +13088,7 @@
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14">
       <c r="A34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -10440,7 +13101,7 @@
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14">
       <c r="A35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -10453,7 +13114,7 @@
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14">
       <c r="A36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -10466,7 +13127,7 @@
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14">
       <c r="A37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -10479,7 +13140,7 @@
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14">
       <c r="A38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -10492,7 +13153,7 @@
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14">
       <c r="A39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -10505,7 +13166,7 @@
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14">
       <c r="A40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -10518,7 +13179,7 @@
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14">
       <c r="A41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -10531,7 +13192,7 @@
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14">
       <c r="A42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -10544,7 +13205,7 @@
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14">
       <c r="A43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -10557,7 +13218,7 @@
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14">
       <c r="A44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -10570,7 +13231,7 @@
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14">
       <c r="A45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -10583,7 +13244,7 @@
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14">
       <c r="A46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -10596,7 +13257,7 @@
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14">
       <c r="A47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -10609,7 +13270,7 @@
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14">
       <c r="A48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -10622,7 +13283,7 @@
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14">
       <c r="A49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -10635,7 +13296,7 @@
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14">
       <c r="A50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -10648,7 +13309,7 @@
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14">
       <c r="A51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -10661,7 +13322,7 @@
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14">
       <c r="A52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -10674,7 +13335,7 @@
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14">
       <c r="A53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -10687,7 +13348,7 @@
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14">
       <c r="A54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -10700,7 +13361,7 @@
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14">
       <c r="A55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -10713,7 +13374,7 @@
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14">
       <c r="A56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -10726,7 +13387,7 @@
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14">
       <c r="A57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -10739,7 +13400,7 @@
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14">
       <c r="A58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -10752,7 +13413,7 @@
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14">
       <c r="A59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -10765,7 +13426,7 @@
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14">
       <c r="A60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -10778,7 +13439,7 @@
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14">
       <c r="A61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -10791,7 +13452,7 @@
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14">
       <c r="A62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -10804,7 +13465,7 @@
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14">
       <c r="A63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -10817,7 +13478,7 @@
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14">
       <c r="A64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -10830,7 +13491,7 @@
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14">
       <c r="A65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -10843,7 +13504,7 @@
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14">
       <c r="A66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -10856,7 +13517,7 @@
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14">
       <c r="A67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -10869,7 +13530,7 @@
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14">
       <c r="A68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -10882,7 +13543,7 @@
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14">
       <c r="A69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -10895,7 +13556,7 @@
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14">
       <c r="A70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -10908,7 +13569,7 @@
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14">
       <c r="A71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -10921,7 +13582,7 @@
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14">
       <c r="A72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -10934,7 +13595,7 @@
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14">
       <c r="A73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -10947,7 +13608,7 @@
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14">
       <c r="A74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -10960,7 +13621,7 @@
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14">
       <c r="A75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -10973,7 +13634,7 @@
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14">
       <c r="A76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -10992,7 +13653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508CD5CE-13DD-4328-89A9-84AD8D4C38A0}">
   <dimension ref="A1:R78"/>
   <sheetViews>
@@ -11000,7 +13661,7 @@
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.21875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
@@ -11023,7 +13684,7 @@
     <col min="19" max="16384" width="10.21875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="24" customHeight="1" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>150</v>
       </c>
@@ -11079,7 +13740,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -11124,14 +13785,14 @@
       </c>
       <c r="Q2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -11176,14 +13837,14 @@
       </c>
       <c r="Q3" s="6">
         <f t="shared" ref="Q3:R18" ca="1" si="0">TODAY()</f>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -11228,14 +13889,14 @@
       </c>
       <c r="Q4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -11280,14 +13941,14 @@
       </c>
       <c r="Q5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -11332,14 +13993,14 @@
       </c>
       <c r="Q6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -11384,14 +14045,14 @@
       </c>
       <c r="Q7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -11436,14 +14097,14 @@
       </c>
       <c r="Q8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -11488,14 +14149,14 @@
       </c>
       <c r="Q9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -11540,14 +14201,14 @@
       </c>
       <c r="Q10" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R10" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -11592,14 +14253,14 @@
       </c>
       <c r="Q11" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R11" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -11644,14 +14305,14 @@
       </c>
       <c r="Q12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -11696,14 +14357,14 @@
       </c>
       <c r="Q13" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R13" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -11748,14 +14409,14 @@
       </c>
       <c r="Q14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -11800,14 +14461,14 @@
       </c>
       <c r="Q15" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R15" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -11852,14 +14513,14 @@
       </c>
       <c r="Q16" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R16" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -11904,14 +14565,14 @@
       </c>
       <c r="Q17" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R17" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -11956,14 +14617,14 @@
       </c>
       <c r="Q18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -12008,14 +14669,14 @@
       </c>
       <c r="Q19" s="6">
         <f t="shared" ref="Q19:R78" ca="1" si="1">TODAY()</f>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R19" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -12060,14 +14721,14 @@
       </c>
       <c r="Q20" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R20" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -12112,14 +14773,14 @@
       </c>
       <c r="Q21" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R21" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -12164,14 +14825,14 @@
       </c>
       <c r="Q22" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R22" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -12216,14 +14877,14 @@
       </c>
       <c r="Q23" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R23" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -12268,14 +14929,14 @@
       </c>
       <c r="Q24" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R24" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -12320,14 +14981,14 @@
       </c>
       <c r="Q25" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R25" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -12372,14 +15033,14 @@
       </c>
       <c r="Q26" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R26" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -12424,14 +15085,14 @@
       </c>
       <c r="Q27" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R27" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -12476,14 +15137,14 @@
       </c>
       <c r="Q28" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R28" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -12528,14 +15189,14 @@
       </c>
       <c r="Q29" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R29" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -12580,14 +15241,14 @@
       </c>
       <c r="Q30" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R30" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -12632,14 +15293,14 @@
       </c>
       <c r="Q31" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R31" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -12684,14 +15345,14 @@
       </c>
       <c r="Q32" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R32" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -12736,14 +15397,14 @@
       </c>
       <c r="Q33" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R33" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -12788,14 +15449,14 @@
       </c>
       <c r="Q34" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R34" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -12840,14 +15501,14 @@
       </c>
       <c r="Q35" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R35" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -12892,14 +15553,14 @@
       </c>
       <c r="Q36" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R36" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -12944,14 +15605,14 @@
       </c>
       <c r="Q37" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R37" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -12996,14 +15657,14 @@
       </c>
       <c r="Q38" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R38" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -13048,14 +15709,14 @@
       </c>
       <c r="Q39" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R39" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -13100,14 +15761,14 @@
       </c>
       <c r="Q40" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R40" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -13152,14 +15813,14 @@
       </c>
       <c r="Q41" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R41" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -13204,14 +15865,14 @@
       </c>
       <c r="Q42" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R42" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -13256,14 +15917,14 @@
       </c>
       <c r="Q43" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R43" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -13308,14 +15969,14 @@
       </c>
       <c r="Q44" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R44" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -13360,14 +16021,14 @@
       </c>
       <c r="Q45" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R45" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -13412,14 +16073,14 @@
       </c>
       <c r="Q46" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R46" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -13464,14 +16125,14 @@
       </c>
       <c r="Q47" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R47" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -13516,14 +16177,14 @@
       </c>
       <c r="Q48" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R48" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -13568,14 +16229,14 @@
       </c>
       <c r="Q49" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R49" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -13620,14 +16281,14 @@
       </c>
       <c r="Q50" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R50" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -13672,14 +16333,14 @@
       </c>
       <c r="Q51" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R51" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -13724,14 +16385,14 @@
       </c>
       <c r="Q52" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R52" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -13776,14 +16437,14 @@
       </c>
       <c r="Q53" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R53" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -13828,14 +16489,14 @@
       </c>
       <c r="Q54" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R54" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -13880,14 +16541,14 @@
       </c>
       <c r="Q55" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R55" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -13932,14 +16593,14 @@
       </c>
       <c r="Q56" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R56" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -13984,14 +16645,14 @@
       </c>
       <c r="Q57" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R57" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -14036,14 +16697,14 @@
       </c>
       <c r="Q58" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R58" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -14088,14 +16749,14 @@
       </c>
       <c r="Q59" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R59" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -14140,14 +16801,14 @@
       </c>
       <c r="Q60" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R60" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -14192,14 +16853,14 @@
       </c>
       <c r="Q61" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R61" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -14244,14 +16905,14 @@
       </c>
       <c r="Q62" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R62" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -14296,14 +16957,14 @@
       </c>
       <c r="Q63" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R63" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -14348,14 +17009,14 @@
       </c>
       <c r="Q64" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R64" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -14400,14 +17061,14 @@
       </c>
       <c r="Q65" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R65" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -14452,14 +17113,14 @@
       </c>
       <c r="Q66" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R66" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -14504,14 +17165,14 @@
       </c>
       <c r="Q67" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R67" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -14556,14 +17217,14 @@
       </c>
       <c r="Q68" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R68" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -14608,14 +17269,14 @@
       </c>
       <c r="Q69" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R69" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -14660,14 +17321,14 @@
       </c>
       <c r="Q70" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R70" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -14712,14 +17373,14 @@
       </c>
       <c r="Q71" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R71" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -14764,14 +17425,14 @@
       </c>
       <c r="Q72" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R72" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -14816,14 +17477,14 @@
       </c>
       <c r="Q73" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R73" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -14868,14 +17529,14 @@
       </c>
       <c r="Q74" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R74" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -14920,14 +17581,14 @@
       </c>
       <c r="Q75" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R75" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -14972,14 +17633,14 @@
       </c>
       <c r="Q76" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R76" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -15024,14 +17685,14 @@
       </c>
       <c r="Q77" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R77" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -15076,11 +17737,11 @@
       </c>
       <c r="Q78" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="R78" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45481</v>
+        <v>45490</v>
       </c>
     </row>
   </sheetData>

--- a/Documentos/Mapeamento das Fontes de Dados/CADASTRO/CADASTRO.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/CADASTRO/CADASTRO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\CADASTRO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBF63D5-1F9D-4A89-8894-F2491484BC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F6F558-02A8-4290-A004-969036D37258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8880" firstSheet="2" activeTab="2" xr2:uid="{D97F085D-39BF-40A8-913E-D715D9E5FECC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{D97F085D-39BF-40A8-913E-D715D9E5FECC}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="ESTRUTURA_DW_CADASTRO OFICIAL" sheetId="4" r:id="rId3"/>
     <sheet name="DICIONARIO" sheetId="6" r:id="rId4"/>
     <sheet name="Planilha3" sheetId="7" r:id="rId5"/>
-    <sheet name="ESTRUTURA_DW_CADASTRO" sheetId="3" state="hidden" r:id="rId6"/>
-    <sheet name="SAVE" sheetId="5" state="hidden" r:id="rId7"/>
+    <sheet name="TABELA" sheetId="8" r:id="rId6"/>
+    <sheet name="ESTRUTURA_DW_CADASTRO" sheetId="3" state="hidden" r:id="rId7"/>
+    <sheet name="SAVE" sheetId="5" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'ESTRUTURA_DW_CADASTRO OFICIAL'!$A$1:$P$106</definedName>
@@ -28,8 +29,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
-    <pivotCache cacheId="7" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
+    <pivotCache cacheId="7" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2327" uniqueCount="306">
   <si>
     <t>CONT_ID</t>
   </si>
@@ -891,13 +892,91 @@
   </si>
   <si>
     <t>UNIMED</t>
+  </si>
+  <si>
+    <t>10.10.222.100</t>
+  </si>
+  <si>
+    <t>NOME DO CAMPO</t>
+  </si>
+  <si>
+    <t>FORMATO SQL</t>
+  </si>
+  <si>
+    <t>TAMANHO</t>
+  </si>
+  <si>
+    <t>DE X PARA</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>ID DO CADASTRO NO DW</t>
+  </si>
+  <si>
+    <t>NOME DA EMPRESA</t>
+  </si>
+  <si>
+    <t>NOME DO CLIENTE</t>
+  </si>
+  <si>
+    <t>CODIGO DO CLIENTE</t>
+  </si>
+  <si>
+    <t>CODIGO DA CARTEIRA</t>
+  </si>
+  <si>
+    <t>CODIGO DA OPERAÇÃO</t>
+  </si>
+  <si>
+    <t>CODIGO DO CRM ORIGEM</t>
+  </si>
+  <si>
+    <t>NOME DA CARTEIRA</t>
+  </si>
+  <si>
+    <t>NOME DA OPERAÇÃO</t>
+  </si>
+  <si>
+    <t>NOME DO CRM</t>
+  </si>
+  <si>
+    <t>HOST IP DO SERVIDOR</t>
+  </si>
+  <si>
+    <t>BANCO DO SERVIDOR</t>
+  </si>
+  <si>
+    <t>TIPO DO SGBD</t>
+  </si>
+  <si>
+    <t>STATUS DO REGISTRO</t>
+  </si>
+  <si>
+    <t>DATA DE CADASTRO NO DW</t>
+  </si>
+  <si>
+    <t>DATA DE ATUALIZAÇÃO NO DW</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>nvarchar</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>datetime2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -913,20 +992,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="9"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -936,6 +1024,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF44546A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,7 +1082,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1009,14 +1109,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
     <dxf>
       <font>
         <color theme="9"/>
@@ -1054,7 +1157,12 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
       </font>
     </dxf>
   </dxfs>
@@ -1144,7 +1252,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Matheus Alexander Ribeiro Sombra" refreshedDate="45490.847207523148" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="105" xr:uid="{14AFC73B-3BA6-4EC2-B78E-8805F1105859}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Matheus Alexander Ribeiro Sombra" refreshedDate="45495.532494444444" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="105" xr:uid="{14AFC73B-3BA6-4EC2-B78E-8805F1105859}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:P106" sheet="ESTRUTURA_DW_CADASTRO OFICIAL"/>
   </cacheSource>
@@ -1174,112 +1282,7 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="OPERAÇÃO" numFmtId="0">
-      <sharedItems count="104">
-        <s v="ENEL COB NAO ENERGIA"/>
-        <s v="ENEL CE VENCIDOS"/>
-        <s v="ENEL CE UNPAID"/>
-        <s v="ENEL CE PC6"/>
-        <s v="ENEL CE PC5"/>
-        <s v="ENEL CE PC4"/>
-        <s v="ENEL CE PC3 "/>
-        <s v="ENEL CE PC2"/>
-        <s v="ENEL CE PC1"/>
-        <s v="ENEL CE GRUPO A PC1"/>
-        <s v="ENEL CE GOVERNO"/>
-        <s v="ENEL CE DG3"/>
-        <s v="ENEL CE DG2"/>
-        <s v="ENEL CE DG1"/>
-        <s v="ENEL CE DG0"/>
-        <s v="ENEL CE BASE B2B ANTIG"/>
-        <s v="ENEL CE BASE B2B"/>
-        <s v="ENEL - DESENROLA BRASIL"/>
-        <s v="ENEL_RJ_DUMP"/>
-        <s v="ENEL TOI RJ - BACKOFFICE"/>
-        <s v="ENEL RJ UNPAID"/>
-        <s v="ENEL RJ TOI PRE"/>
-        <s v="ENEL RJ TOI"/>
-        <s v="ENEL RJ PC6"/>
-        <s v="ENEL RJ PC5"/>
-        <s v="ENEL RJ PC4"/>
-        <s v="ENEL RJ PC3"/>
-        <s v="ENEL RJ PC2"/>
-        <s v="ENEL RJ PC1"/>
-        <s v="ENEL RJ NAO ENERGIA"/>
-        <s v="ENEL RJ Grupo A "/>
-        <s v="ENEL RJ GOVERNO"/>
-        <s v="ENEL RJ DG3"/>
-        <s v="ENEL RJ DG2"/>
-        <s v="ENEL RJ DG1"/>
-        <s v="ENEL RJ DG0"/>
-        <s v="ENEL RJ BASE B2B"/>
-        <s v="ENEL RJ BAIXA RENDA TOI - AÇÃO EXTRA"/>
-        <s v="DUNNING RJ - TESTE"/>
-        <s v="ENEL SP TOI FAT"/>
-        <s v="ENEL SP TOI"/>
-        <s v="ENEL SP PC6"/>
-        <s v="ENEL SP PC5"/>
-        <s v="ENEL SP PC4"/>
-        <s v="ENEL SP PC3"/>
-        <s v="ENEL SP PC2"/>
-        <s v="ENEL SP PC1"/>
-        <s v="ENEL SP DG3"/>
-        <s v="ENEL SP DG2"/>
-        <s v="ENEL SP DG1"/>
-        <s v="ENEL SP DG0"/>
-        <s v="POC EQUATORIAL"/>
-        <s v="ENEL GO PC6"/>
-        <s v="ENEL GO PC5"/>
-        <s v="ENEL GO PC4"/>
-        <s v="ENEL GO PC3"/>
-        <s v="ENEL GO PC2"/>
-        <s v="ENEL GO PC1"/>
-        <s v="ENEL GO DG0"/>
-        <s v="KEDU"/>
-        <s v="KEDU SAC "/>
-        <s v="KEDU 2022"/>
-        <s v="TESTE"/>
-        <s v="KEDU LEGADO "/>
-        <s v="KEDU TAPETE AZUL"/>
-        <s v="KEDU 2024"/>
-        <s v="KEDU TAPETE AMARELO"/>
-        <s v="TIM - CONTROLE / POS PAGO"/>
-        <s v="TIM - ULTRA FIBRA / LIVE"/>
-        <s v="TIM - OI"/>
-        <s v="TIM - PILOTO DEEPDIVE"/>
-        <s v="TIM - Baixo risco"/>
-        <s v="TIM - Alto risco"/>
-        <s v="TIM_CYBER"/>
-        <s v="COPEL"/>
-        <s v="ALESTA"/>
-        <s v="AGUAS DO BRASIL"/>
-        <s v="AGUAS DO BRASIL FASE 4"/>
-        <s v="AGUAS DO BRASIL FASE 1"/>
-        <s v="AGUAS DO BRASIL_ACAO "/>
-        <s v="CENTRAL NACIONAL UNIMED - PME"/>
-        <s v="CENTRAL NACIONAL UNIMED - PF"/>
-        <s v="FUCAPI"/>
-        <s v="COLEGIO FARIAS BRITO"/>
-        <s v="FGF"/>
-        <s v="COLEGIO FARIAS BRITO - ADM"/>
-        <s v="COLEGIO N S DAS GRAÇAS"/>
-        <s v="FAC - FACULDADE CEARENSE"/>
-        <s v="LOURENÇO FILHO (CENTRO)"/>
-        <s v="LOURENÇO FILHO (PARANGABA)"/>
-        <s v="LOURENÇO FILHO (VEGA MONTESE)"/>
-        <s v="LOURENÇO FILHO (VEGA SUL)"/>
-        <s v="ALARES VIDEOMAR REDE NORDESTE"/>
-        <s v="ALARES CABO SERVICOS DE TELECOMUNICACOES"/>
-        <s v="ALARES TECNET"/>
-        <s v="ALARES WEBBY TELECOM"/>
-        <s v="ALARES WEBBY TECNOLOGIA E GESTAO"/>
-        <s v="M Dias Branco 540dd (2)"/>
-        <s v="M Dias Branco 60dd (1)"/>
-        <s v="M Dias Branco (Piraquê)"/>
-        <s v="UNIMED NOTIFICACAO DIGITAL"/>
-        <s v="Unimed Fortaleza - Cobrança"/>
-        <s v="UNIMED FORTALEZA - COBRANÇA PJ"/>
-        <s v="ENEL X"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="CRM" numFmtId="0">
       <sharedItems count="2">
@@ -1288,13 +1291,14 @@
       </sharedItems>
     </cacheField>
     <cacheField name="SERVIDOR_CRM" numFmtId="0">
-      <sharedItems count="6">
-        <s v="10.10.220.100"/>
+      <sharedItems count="7">
+        <s v="10.10.222.100"/>
         <s v="45.77.164.133"/>
         <s v="45.77.94.104"/>
         <s v="52.179.19.141"/>
         <s v="45.77.193.154"/>
         <s v="192.168.10.200"/>
+        <s v="10.10.220.100" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="BANCO_CRM" numFmtId="0">
@@ -1316,10 +1320,10 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="DATA_CADASTRO" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-07-17T00:00:00" maxDate="2024-07-18T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-07-22T00:00:00" maxDate="2024-07-23T00:00:00"/>
     </cacheField>
     <cacheField name="DATA_ATUALIZAÇÃO" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-07-17T00:00:00" maxDate="2024-07-18T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-07-22T00:00:00" maxDate="2024-07-23T00:00:00"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2578,14 +2582,14 @@
     <n v="1"/>
     <n v="200"/>
     <s v="ENEL CE"/>
-    <x v="0"/>
+    <s v="ENEL COB NAO ENERGIA"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="2"/>
@@ -2596,14 +2600,14 @@
     <n v="2"/>
     <n v="203"/>
     <s v="ENEL CE"/>
-    <x v="1"/>
+    <s v="ENEL CE VENCIDOS"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="3"/>
@@ -2614,14 +2618,14 @@
     <n v="3"/>
     <n v="189"/>
     <s v="ENEL CE"/>
-    <x v="2"/>
+    <s v="ENEL CE UNPAID"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="4"/>
@@ -2632,14 +2636,14 @@
     <n v="4"/>
     <n v="176"/>
     <s v="ENEL CE"/>
-    <x v="3"/>
+    <s v="ENEL CE PC6"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="5"/>
@@ -2650,14 +2654,14 @@
     <n v="5"/>
     <n v="175"/>
     <s v="ENEL CE"/>
-    <x v="4"/>
+    <s v="ENEL CE PC5"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="6"/>
@@ -2668,14 +2672,14 @@
     <n v="6"/>
     <n v="116"/>
     <s v="ENEL CE"/>
-    <x v="5"/>
+    <s v="ENEL CE PC4"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="7"/>
@@ -2686,14 +2690,14 @@
     <n v="7"/>
     <n v="91"/>
     <s v="ENEL CE"/>
-    <x v="6"/>
+    <s v="ENEL CE PC3 "/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="8"/>
@@ -2704,14 +2708,14 @@
     <n v="8"/>
     <n v="115"/>
     <s v="ENEL CE"/>
-    <x v="7"/>
+    <s v="ENEL CE PC2"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="9"/>
@@ -2722,14 +2726,14 @@
     <n v="9"/>
     <n v="114"/>
     <s v="ENEL CE"/>
-    <x v="8"/>
+    <s v="ENEL CE PC1"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="10"/>
@@ -2740,14 +2744,14 @@
     <n v="10"/>
     <n v="93"/>
     <s v="ENEL CE"/>
-    <x v="9"/>
+    <s v="ENEL CE GRUPO A PC1"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="11"/>
@@ -2758,14 +2762,14 @@
     <n v="11"/>
     <n v="192"/>
     <s v="ENEL CE"/>
-    <x v="10"/>
+    <s v="ENEL CE GOVERNO"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="12"/>
@@ -2776,14 +2780,14 @@
     <n v="12"/>
     <n v="171"/>
     <s v="ENEL CE"/>
-    <x v="11"/>
+    <s v="ENEL CE DG3"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="13"/>
@@ -2794,14 +2798,14 @@
     <n v="13"/>
     <n v="170"/>
     <s v="ENEL CE"/>
-    <x v="12"/>
+    <s v="ENEL CE DG2"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="14"/>
@@ -2812,14 +2816,14 @@
     <n v="14"/>
     <n v="169"/>
     <s v="ENEL CE"/>
-    <x v="13"/>
+    <s v="ENEL CE DG1"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="15"/>
@@ -2830,14 +2834,14 @@
     <n v="15"/>
     <n v="168"/>
     <s v="ENEL CE"/>
-    <x v="14"/>
+    <s v="ENEL CE DG0"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="16"/>
@@ -2848,14 +2852,14 @@
     <n v="16"/>
     <n v="118"/>
     <s v="ENEL CE"/>
-    <x v="15"/>
+    <s v="ENEL CE BASE B2B ANTIG"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="INATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="17"/>
@@ -2866,14 +2870,14 @@
     <n v="17"/>
     <n v="205"/>
     <s v="ENEL CE"/>
-    <x v="16"/>
+    <s v="ENEL CE BASE B2B"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="INATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="18"/>
@@ -2884,14 +2888,14 @@
     <n v="18"/>
     <n v="206"/>
     <s v="ENEL CE"/>
-    <x v="17"/>
+    <s v="ENEL - DESENROLA BRASIL"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="INATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="19"/>
@@ -2902,14 +2906,14 @@
     <n v="1"/>
     <n v="193"/>
     <s v="ENEL RJ"/>
-    <x v="18"/>
+    <s v="ENEL_RJ_DUMP"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="INATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="20"/>
@@ -2920,14 +2924,14 @@
     <n v="2"/>
     <n v="198"/>
     <s v="ENEL RJ"/>
-    <x v="19"/>
+    <s v="ENEL TOI RJ - BACKOFFICE"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="21"/>
@@ -2938,14 +2942,14 @@
     <n v="3"/>
     <n v="207"/>
     <s v="ENEL RJ"/>
-    <x v="20"/>
+    <s v="ENEL RJ UNPAID"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="22"/>
@@ -2956,14 +2960,14 @@
     <n v="4"/>
     <n v="199"/>
     <s v="ENEL RJ"/>
-    <x v="21"/>
+    <s v="ENEL RJ TOI PRE"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="23"/>
@@ -2974,14 +2978,14 @@
     <n v="5"/>
     <n v="135"/>
     <s v="ENEL RJ"/>
-    <x v="22"/>
+    <s v="ENEL RJ TOI"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="24"/>
@@ -2992,14 +2996,14 @@
     <n v="6"/>
     <n v="178"/>
     <s v="ENEL RJ"/>
-    <x v="23"/>
+    <s v="ENEL RJ PC6"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="25"/>
@@ -3010,14 +3014,14 @@
     <n v="7"/>
     <n v="177"/>
     <s v="ENEL RJ"/>
-    <x v="24"/>
+    <s v="ENEL RJ PC5"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="26"/>
@@ -3028,14 +3032,14 @@
     <n v="8"/>
     <n v="112"/>
     <s v="ENEL RJ"/>
-    <x v="25"/>
+    <s v="ENEL RJ PC4"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="27"/>
@@ -3046,14 +3050,14 @@
     <n v="9"/>
     <n v="92"/>
     <s v="ENEL RJ"/>
-    <x v="26"/>
+    <s v="ENEL RJ PC3"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="28"/>
@@ -3064,14 +3068,14 @@
     <n v="10"/>
     <n v="126"/>
     <s v="ENEL RJ"/>
-    <x v="27"/>
+    <s v="ENEL RJ PC2"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="29"/>
@@ -3082,14 +3086,14 @@
     <n v="11"/>
     <n v="124"/>
     <s v="ENEL RJ"/>
-    <x v="28"/>
+    <s v="ENEL RJ PC1"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="30"/>
@@ -3100,14 +3104,14 @@
     <n v="12"/>
     <n v="202"/>
     <s v="ENEL RJ"/>
-    <x v="29"/>
+    <s v="ENEL RJ NAO ENERGIA"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="31"/>
@@ -3118,14 +3122,14 @@
     <n v="13"/>
     <n v="129"/>
     <s v="ENEL RJ"/>
-    <x v="30"/>
+    <s v="ENEL RJ Grupo A "/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="32"/>
@@ -3136,14 +3140,14 @@
     <n v="14"/>
     <n v="142"/>
     <s v="ENEL RJ"/>
-    <x v="31"/>
+    <s v="ENEL RJ GOVERNO"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="33"/>
@@ -3154,14 +3158,14 @@
     <n v="15"/>
     <n v="163"/>
     <s v="ENEL RJ"/>
-    <x v="32"/>
+    <s v="ENEL RJ DG3"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="34"/>
@@ -3172,14 +3176,14 @@
     <n v="16"/>
     <n v="162"/>
     <s v="ENEL RJ"/>
-    <x v="33"/>
+    <s v="ENEL RJ DG2"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="35"/>
@@ -3190,14 +3194,14 @@
     <n v="17"/>
     <n v="161"/>
     <s v="ENEL RJ"/>
-    <x v="34"/>
+    <s v="ENEL RJ DG1"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="36"/>
@@ -3208,14 +3212,14 @@
     <n v="18"/>
     <n v="160"/>
     <s v="ENEL RJ"/>
-    <x v="35"/>
+    <s v="ENEL RJ DG0"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="37"/>
@@ -3226,14 +3230,14 @@
     <n v="19"/>
     <n v="94"/>
     <s v="ENEL RJ"/>
-    <x v="36"/>
+    <s v="ENEL RJ BASE B2B"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="INATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="38"/>
@@ -3244,14 +3248,14 @@
     <n v="20"/>
     <n v="196"/>
     <s v="ENEL RJ"/>
-    <x v="37"/>
+    <s v="ENEL RJ BAIXA RENDA TOI - AÇÃO EXTRA"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="INATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="39"/>
@@ -3262,14 +3266,14 @@
     <n v="21"/>
     <n v="197"/>
     <s v="ENEL RJ"/>
-    <x v="38"/>
+    <s v="DUNNING RJ - TESTE"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="INATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="40"/>
@@ -3280,14 +3284,14 @@
     <n v="1"/>
     <n v="187"/>
     <s v="ENEL SP"/>
-    <x v="39"/>
+    <s v="ENEL SP TOI FAT"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="41"/>
@@ -3298,14 +3302,14 @@
     <n v="2"/>
     <n v="159"/>
     <s v="ENEL SP"/>
-    <x v="40"/>
+    <s v="ENEL SP TOI"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="42"/>
@@ -3316,14 +3320,14 @@
     <n v="3"/>
     <n v="152"/>
     <s v="ENEL SP"/>
-    <x v="41"/>
+    <s v="ENEL SP PC6"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="43"/>
@@ -3334,14 +3338,14 @@
     <n v="4"/>
     <n v="151"/>
     <s v="ENEL SP"/>
-    <x v="42"/>
+    <s v="ENEL SP PC5"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="44"/>
@@ -3352,14 +3356,14 @@
     <n v="5"/>
     <n v="150"/>
     <s v="ENEL SP"/>
-    <x v="43"/>
+    <s v="ENEL SP PC4"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="45"/>
@@ -3370,14 +3374,14 @@
     <n v="6"/>
     <n v="149"/>
     <s v="ENEL SP"/>
-    <x v="44"/>
+    <s v="ENEL SP PC3"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="46"/>
@@ -3388,14 +3392,14 @@
     <n v="7"/>
     <n v="148"/>
     <s v="ENEL SP"/>
-    <x v="45"/>
+    <s v="ENEL SP PC2"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="47"/>
@@ -3406,14 +3410,14 @@
     <n v="8"/>
     <n v="147"/>
     <s v="ENEL SP"/>
-    <x v="46"/>
+    <s v="ENEL SP PC1"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="48"/>
@@ -3424,14 +3428,14 @@
     <n v="9"/>
     <n v="157"/>
     <s v="ENEL SP"/>
-    <x v="47"/>
+    <s v="ENEL SP DG3"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="49"/>
@@ -3442,14 +3446,14 @@
     <n v="10"/>
     <n v="156"/>
     <s v="ENEL SP"/>
-    <x v="48"/>
+    <s v="ENEL SP DG2"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="50"/>
@@ -3460,14 +3464,14 @@
     <n v="11"/>
     <n v="155"/>
     <s v="ENEL SP"/>
-    <x v="49"/>
+    <s v="ENEL SP DG1"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="51"/>
@@ -3478,14 +3482,14 @@
     <n v="12"/>
     <n v="154"/>
     <s v="ENEL SP"/>
-    <x v="50"/>
+    <s v="ENEL SP DG0"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="52"/>
@@ -3496,14 +3500,14 @@
     <n v="1"/>
     <n v="201"/>
     <s v="EQUATORIAL"/>
-    <x v="51"/>
+    <s v="POC EQUATORIAL"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="53"/>
@@ -3514,14 +3518,14 @@
     <n v="2"/>
     <n v="174"/>
     <s v="EQUATORIAL"/>
-    <x v="52"/>
+    <s v="ENEL GO PC6"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="54"/>
@@ -3532,14 +3536,14 @@
     <n v="3"/>
     <n v="173"/>
     <s v="EQUATORIAL"/>
-    <x v="53"/>
+    <s v="ENEL GO PC5"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="55"/>
@@ -3550,14 +3554,14 @@
     <n v="4"/>
     <n v="172"/>
     <s v="EQUATORIAL"/>
-    <x v="54"/>
+    <s v="ENEL GO PC4"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="56"/>
@@ -3568,14 +3572,14 @@
     <n v="5"/>
     <n v="119"/>
     <s v="EQUATORIAL"/>
-    <x v="55"/>
+    <s v="ENEL GO PC3"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="57"/>
@@ -3586,14 +3590,14 @@
     <n v="6"/>
     <n v="122"/>
     <s v="EQUATORIAL"/>
-    <x v="56"/>
+    <s v="ENEL GO PC2"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="58"/>
@@ -3604,14 +3608,14 @@
     <n v="7"/>
     <n v="121"/>
     <s v="EQUATORIAL"/>
-    <x v="57"/>
+    <s v="ENEL GO PC1"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="59"/>
@@ -3622,14 +3626,14 @@
     <n v="8"/>
     <n v="164"/>
     <s v="EQUATORIAL"/>
-    <x v="58"/>
+    <s v="ENEL GO DG0"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="60"/>
@@ -3640,14 +3644,14 @@
     <n v="1"/>
     <n v="1"/>
     <s v="KEDU"/>
-    <x v="59"/>
+    <s v="KEDU"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="61"/>
@@ -3658,14 +3662,14 @@
     <n v="2"/>
     <n v="2"/>
     <s v="KEDU"/>
-    <x v="60"/>
+    <s v="KEDU SAC "/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="62"/>
@@ -3676,14 +3680,14 @@
     <n v="3"/>
     <n v="3"/>
     <s v="KEDU"/>
-    <x v="61"/>
+    <s v="KEDU 2022"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="63"/>
@@ -3694,14 +3698,14 @@
     <n v="4"/>
     <n v="4"/>
     <s v="KEDU"/>
-    <x v="62"/>
+    <s v="TESTE"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
     <s v="SQL SERVER"/>
     <s v="INATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="64"/>
@@ -3712,14 +3716,14 @@
     <n v="5"/>
     <n v="5"/>
     <s v="KEDU"/>
-    <x v="63"/>
+    <s v="KEDU LEGADO "/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="65"/>
@@ -3730,14 +3734,14 @@
     <n v="6"/>
     <n v="6"/>
     <s v="KEDU"/>
-    <x v="64"/>
+    <s v="KEDU TAPETE AZUL"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="66"/>
@@ -3748,14 +3752,14 @@
     <n v="7"/>
     <n v="7"/>
     <s v="KEDU"/>
-    <x v="65"/>
+    <s v="KEDU 2024"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="67"/>
@@ -3766,14 +3770,14 @@
     <n v="8"/>
     <n v="8"/>
     <s v="KEDU"/>
-    <x v="66"/>
+    <s v="KEDU TAPETE AMARELO"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="68"/>
@@ -3784,14 +3788,14 @@
     <n v="1"/>
     <n v="1"/>
     <s v="TIM"/>
-    <x v="67"/>
+    <s v="TIM - CONTROLE / POS PAGO"/>
     <x v="0"/>
     <x v="2"/>
     <x v="2"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="69"/>
@@ -3802,14 +3806,14 @@
     <n v="2"/>
     <n v="2"/>
     <s v="TIM"/>
-    <x v="68"/>
+    <s v="TIM - ULTRA FIBRA / LIVE"/>
     <x v="0"/>
     <x v="2"/>
     <x v="2"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="70"/>
@@ -3820,14 +3824,14 @@
     <n v="3"/>
     <n v="3"/>
     <s v="TIM"/>
-    <x v="69"/>
+    <s v="TIM - OI"/>
     <x v="0"/>
     <x v="2"/>
     <x v="2"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="71"/>
@@ -3838,14 +3842,14 @@
     <n v="4"/>
     <n v="4"/>
     <s v="TIM"/>
-    <x v="70"/>
+    <s v="TIM - PILOTO DEEPDIVE"/>
     <x v="0"/>
     <x v="2"/>
     <x v="2"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="72"/>
@@ -3856,14 +3860,14 @@
     <n v="5"/>
     <n v="5"/>
     <s v="TIM"/>
-    <x v="71"/>
+    <s v="TIM - Baixo risco"/>
     <x v="0"/>
     <x v="2"/>
     <x v="2"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="73"/>
@@ -3874,14 +3878,14 @@
     <n v="6"/>
     <n v="6"/>
     <s v="TIM"/>
-    <x v="72"/>
+    <s v="TIM - Alto risco"/>
     <x v="0"/>
     <x v="2"/>
     <x v="2"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="74"/>
@@ -3892,14 +3896,14 @@
     <n v="7"/>
     <n v="230"/>
     <s v="TIM"/>
-    <x v="73"/>
+    <s v="TIM_CYBER"/>
     <x v="1"/>
     <x v="3"/>
     <x v="3"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="75"/>
@@ -3910,14 +3914,14 @@
     <n v="1"/>
     <n v="195"/>
     <s v="COPEL"/>
-    <x v="74"/>
+    <s v="COPEL"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="INATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="76"/>
@@ -3928,14 +3932,14 @@
     <n v="2"/>
     <n v="1"/>
     <s v="COPEL"/>
-    <x v="74"/>
+    <s v="COPEL"/>
     <x v="0"/>
     <x v="0"/>
     <x v="4"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="77"/>
@@ -3946,14 +3950,14 @@
     <n v="1"/>
     <n v="204"/>
     <s v="ALESTA"/>
-    <x v="75"/>
+    <s v="ALESTA"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="SQL SERVER"/>
     <s v="INATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="78"/>
@@ -3964,14 +3968,14 @@
     <n v="1"/>
     <n v="1"/>
     <s v="GAB"/>
-    <x v="76"/>
+    <s v="AGUAS DO BRASIL"/>
     <x v="0"/>
     <x v="0"/>
     <x v="5"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="79"/>
@@ -3982,14 +3986,14 @@
     <n v="2"/>
     <n v="2"/>
     <s v="GAB"/>
-    <x v="77"/>
+    <s v="AGUAS DO BRASIL FASE 4"/>
     <x v="0"/>
     <x v="0"/>
     <x v="5"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="80"/>
@@ -4000,14 +4004,14 @@
     <n v="3"/>
     <n v="3"/>
     <s v="GAB"/>
-    <x v="78"/>
+    <s v="AGUAS DO BRASIL FASE 1"/>
     <x v="0"/>
     <x v="0"/>
     <x v="5"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="81"/>
@@ -4018,14 +4022,14 @@
     <n v="4"/>
     <n v="4"/>
     <s v="GAB"/>
-    <x v="79"/>
+    <s v="AGUAS DO BRASIL_ACAO "/>
     <x v="0"/>
     <x v="0"/>
     <x v="5"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="82"/>
@@ -4036,14 +4040,14 @@
     <n v="1"/>
     <n v="224"/>
     <s v="CNU"/>
-    <x v="80"/>
+    <s v="CENTRAL NACIONAL UNIMED - PME"/>
     <x v="0"/>
     <x v="0"/>
     <x v="6"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="83"/>
@@ -4054,14 +4058,14 @@
     <n v="2"/>
     <n v="229"/>
     <s v="CNU"/>
-    <x v="81"/>
+    <s v="CENTRAL NACIONAL UNIMED - PF"/>
     <x v="0"/>
     <x v="0"/>
     <x v="6"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="84"/>
@@ -4072,14 +4076,14 @@
     <n v="1"/>
     <n v="50"/>
     <s v="EDUCAÇÂO"/>
-    <x v="82"/>
+    <s v="FUCAPI"/>
     <x v="0"/>
     <x v="0"/>
     <x v="6"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="85"/>
@@ -4090,14 +4094,14 @@
     <n v="2"/>
     <n v="61"/>
     <s v="EDUCAÇÂO"/>
-    <x v="83"/>
+    <s v="COLEGIO FARIAS BRITO"/>
     <x v="0"/>
     <x v="0"/>
     <x v="6"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="86"/>
@@ -4108,14 +4112,14 @@
     <n v="3"/>
     <n v="88"/>
     <s v="EDUCAÇÂO"/>
-    <x v="84"/>
+    <s v="FGF"/>
     <x v="0"/>
     <x v="0"/>
     <x v="6"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="87"/>
@@ -4126,14 +4130,14 @@
     <n v="4"/>
     <n v="157"/>
     <s v="EDUCAÇÂO"/>
-    <x v="85"/>
+    <s v="COLEGIO FARIAS BRITO - ADM"/>
     <x v="0"/>
     <x v="0"/>
     <x v="6"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="88"/>
@@ -4144,14 +4148,14 @@
     <n v="5"/>
     <n v="197"/>
     <s v="EDUCAÇÂO"/>
-    <x v="86"/>
+    <s v="COLEGIO N S DAS GRAÇAS"/>
     <x v="0"/>
     <x v="0"/>
     <x v="6"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="89"/>
@@ -4162,14 +4166,14 @@
     <n v="6"/>
     <n v="237"/>
     <s v="EDUCAÇÂO"/>
-    <x v="87"/>
+    <s v="FAC - FACULDADE CEARENSE"/>
     <x v="0"/>
     <x v="0"/>
     <x v="6"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="90"/>
@@ -4180,14 +4184,14 @@
     <n v="7"/>
     <n v="254"/>
     <s v="EDUCAÇÂO"/>
-    <x v="88"/>
+    <s v="LOURENÇO FILHO (CENTRO)"/>
     <x v="0"/>
     <x v="0"/>
     <x v="6"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="91"/>
@@ -4198,14 +4202,14 @@
     <n v="8"/>
     <n v="256"/>
     <s v="EDUCAÇÂO"/>
-    <x v="89"/>
+    <s v="LOURENÇO FILHO (PARANGABA)"/>
     <x v="0"/>
     <x v="0"/>
     <x v="6"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="92"/>
@@ -4216,14 +4220,14 @@
     <n v="9"/>
     <n v="257"/>
     <s v="EDUCAÇÂO"/>
-    <x v="90"/>
+    <s v="LOURENÇO FILHO (VEGA MONTESE)"/>
     <x v="0"/>
     <x v="0"/>
     <x v="6"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="93"/>
@@ -4234,14 +4238,14 @@
     <n v="10"/>
     <n v="258"/>
     <s v="EDUCAÇÂO"/>
-    <x v="91"/>
+    <s v="LOURENÇO FILHO (VEGA SUL)"/>
     <x v="0"/>
     <x v="0"/>
     <x v="6"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="94"/>
@@ -4252,14 +4256,14 @@
     <n v="1"/>
     <n v="266"/>
     <s v="ALARES"/>
-    <x v="92"/>
+    <s v="ALARES VIDEOMAR REDE NORDESTE"/>
     <x v="0"/>
     <x v="4"/>
     <x v="7"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="95"/>
@@ -4270,14 +4274,14 @@
     <n v="2"/>
     <n v="267"/>
     <s v="ALARES"/>
-    <x v="93"/>
+    <s v="ALARES CABO SERVICOS DE TELECOMUNICACOES"/>
     <x v="0"/>
     <x v="4"/>
     <x v="7"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="96"/>
@@ -4288,14 +4292,14 @@
     <n v="3"/>
     <n v="268"/>
     <s v="ALARES"/>
-    <x v="94"/>
+    <s v="ALARES TECNET"/>
     <x v="0"/>
     <x v="4"/>
     <x v="7"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="97"/>
@@ -4306,14 +4310,14 @@
     <n v="4"/>
     <n v="269"/>
     <s v="ALARES"/>
-    <x v="95"/>
+    <s v="ALARES WEBBY TELECOM"/>
     <x v="0"/>
     <x v="4"/>
     <x v="7"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="98"/>
@@ -4324,14 +4328,14 @@
     <n v="5"/>
     <n v="270"/>
     <s v="ALARES"/>
-    <x v="96"/>
+    <s v="ALARES WEBBY TECNOLOGIA E GESTAO"/>
     <x v="0"/>
     <x v="4"/>
     <x v="7"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="99"/>
@@ -4342,14 +4346,14 @@
     <n v="1"/>
     <n v="177"/>
     <s v="MDIAS BRANCO"/>
-    <x v="97"/>
+    <s v="M Dias Branco 540dd (2)"/>
     <x v="0"/>
     <x v="0"/>
     <x v="6"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="100"/>
@@ -4360,14 +4364,14 @@
     <n v="2"/>
     <n v="178"/>
     <s v="MDIAS BRANCO"/>
-    <x v="98"/>
+    <s v="M Dias Branco 60dd (1)"/>
     <x v="0"/>
     <x v="0"/>
     <x v="6"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="101"/>
@@ -4378,14 +4382,14 @@
     <n v="3"/>
     <n v="181"/>
     <s v="MDIAS BRANCO"/>
-    <x v="99"/>
+    <s v="M Dias Branco (Piraquê)"/>
     <x v="0"/>
     <x v="0"/>
     <x v="6"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="102"/>
@@ -4396,14 +4400,14 @@
     <n v="1"/>
     <n v="67"/>
     <s v="UNIMED NOTIFICAÇÕES"/>
-    <x v="100"/>
+    <s v="UNIMED NOTIFICACAO DIGITAL"/>
     <x v="0"/>
     <x v="5"/>
     <x v="6"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="103"/>
@@ -4414,14 +4418,14 @@
     <n v="2"/>
     <n v="13"/>
     <s v="UNIMED COB"/>
-    <x v="101"/>
+    <s v="Unimed Fortaleza - Cobrança"/>
     <x v="0"/>
     <x v="5"/>
     <x v="6"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="104"/>
@@ -4432,14 +4436,14 @@
     <n v="3"/>
     <n v="45"/>
     <s v="UNIMED COB"/>
-    <x v="102"/>
+    <s v="UNIMED FORTALEZA - COBRANÇA PJ"/>
     <x v="0"/>
     <x v="5"/>
     <x v="6"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
   <r>
     <n v="105"/>
@@ -4450,14 +4454,14 @@
     <n v="1"/>
     <n v="66"/>
     <s v="ENEL X"/>
-    <x v="103"/>
+    <s v="ENEL X"/>
     <x v="0"/>
     <x v="5"/>
     <x v="6"/>
     <s v="SQL SERVER"/>
     <s v="ATIVO"/>
-    <d v="2024-07-17T00:00:00"/>
-    <d v="2024-07-17T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
+    <d v="2024-07-22T00:00:00"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -4474,115 +4478,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="105">
-        <item x="76"/>
-        <item x="78"/>
-        <item x="77"/>
-        <item x="79"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="92"/>
-        <item x="96"/>
-        <item x="95"/>
-        <item x="75"/>
-        <item x="81"/>
-        <item x="80"/>
-        <item x="83"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="74"/>
-        <item x="38"/>
-        <item x="17"/>
-        <item x="16"/>
-        <item x="15"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="58"/>
-        <item x="57"/>
-        <item x="56"/>
-        <item x="55"/>
-        <item x="54"/>
-        <item x="53"/>
-        <item x="52"/>
-        <item x="37"/>
-        <item x="36"/>
-        <item x="35"/>
-        <item x="34"/>
-        <item x="33"/>
-        <item x="32"/>
-        <item x="31"/>
-        <item x="30"/>
-        <item x="29"/>
-        <item x="28"/>
-        <item x="27"/>
-        <item x="26"/>
-        <item x="25"/>
-        <item x="24"/>
-        <item x="23"/>
-        <item x="22"/>
-        <item x="21"/>
-        <item x="20"/>
-        <item x="50"/>
-        <item x="49"/>
-        <item x="48"/>
-        <item x="47"/>
-        <item x="46"/>
-        <item x="45"/>
-        <item x="44"/>
-        <item x="43"/>
-        <item x="42"/>
-        <item x="41"/>
-        <item x="40"/>
-        <item x="39"/>
-        <item x="19"/>
-        <item x="103"/>
-        <item x="18"/>
-        <item x="87"/>
-        <item x="84"/>
-        <item x="82"/>
-        <item x="59"/>
-        <item x="61"/>
-        <item x="65"/>
-        <item x="63"/>
-        <item x="60"/>
-        <item x="66"/>
-        <item x="64"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="99"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="51"/>
-        <item x="62"/>
-        <item x="72"/>
-        <item x="71"/>
-        <item x="67"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="68"/>
-        <item x="73"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="100"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
       <items count="3">
         <item x="0"/>
@@ -4591,13 +4487,14 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="0"/>
+      <items count="8">
+        <item m="1" x="6"/>
         <item x="5"/>
         <item x="1"/>
         <item x="4"/>
         <item x="2"/>
         <item x="3"/>
+        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4624,21 +4521,6 @@
     <field x="11"/>
   </rowFields>
   <rowItems count="16">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
     <i>
       <x v="1"/>
     </i>
@@ -4669,6 +4551,21 @@
     <i r="1">
       <x v="7"/>
     </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -4679,8 +4576,93 @@
   <pageFields count="1">
     <pageField fld="9" hier="-1"/>
   </pageFields>
-  <formats count="8">
+  <formats count="9">
+    <format dxfId="8">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="10" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="11" count="1">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
     <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="10" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="11" count="1">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="10" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="11" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="10" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="11" count="1">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="10" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="11" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="10" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="11" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="10" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="11" count="2">
+            <x v="2"/>
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="10" count="1" selected="0">
@@ -4692,85 +4674,15 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="10" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="11" count="1">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="5">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="10" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-          <reference field="11" count="1">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="4">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="10" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="11" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="3">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="10" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="11" count="1">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="2">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="10" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="11" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="1">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="10" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="11" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
     <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="10" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="11" count="4">
             <x v="0"/>
-          </reference>
-          <reference field="11" count="2">
+            <x v="1"/>
             <x v="2"/>
             <x v="5"/>
           </reference>
@@ -6728,26 +6640,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2504A63E-7004-434E-A3AD-E1BB16842089}">
   <dimension ref="A1:P106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="H96" sqref="H96"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.21875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23" style="2" customWidth="1"/>
     <col min="8" max="8" width="34.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="42.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.33203125" style="2" customWidth="1"/>
     <col min="13" max="13" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
@@ -6837,7 +6749,7 @@
         <v>145</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>213</v>
@@ -6850,11 +6762,11 @@
       </c>
       <c r="O2" s="6">
         <f t="shared" ref="O2:P21" ca="1" si="0">TODAY()</f>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P2" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -6889,7 +6801,7 @@
         <v>145</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>213</v>
@@ -6902,11 +6814,11 @@
       </c>
       <c r="O3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -6941,7 +6853,7 @@
         <v>145</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>213</v>
@@ -6954,11 +6866,11 @@
       </c>
       <c r="O4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -6993,7 +6905,7 @@
         <v>145</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>213</v>
@@ -7006,11 +6918,11 @@
       </c>
       <c r="O5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -7045,7 +6957,7 @@
         <v>145</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>213</v>
@@ -7058,11 +6970,11 @@
       </c>
       <c r="O6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -7097,7 +7009,7 @@
         <v>145</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>213</v>
@@ -7110,11 +7022,11 @@
       </c>
       <c r="O7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -7149,7 +7061,7 @@
         <v>145</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>213</v>
@@ -7162,11 +7074,11 @@
       </c>
       <c r="O8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -7201,7 +7113,7 @@
         <v>145</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>213</v>
@@ -7214,11 +7126,11 @@
       </c>
       <c r="O9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -7253,7 +7165,7 @@
         <v>145</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>213</v>
@@ -7266,11 +7178,11 @@
       </c>
       <c r="O10" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P10" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -7305,7 +7217,7 @@
         <v>145</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>213</v>
@@ -7318,11 +7230,11 @@
       </c>
       <c r="O11" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P11" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -7357,7 +7269,7 @@
         <v>145</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>213</v>
@@ -7370,11 +7282,11 @@
       </c>
       <c r="O12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -7409,7 +7321,7 @@
         <v>145</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>213</v>
@@ -7422,11 +7334,11 @@
       </c>
       <c r="O13" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P13" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -7461,7 +7373,7 @@
         <v>145</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>213</v>
@@ -7474,11 +7386,11 @@
       </c>
       <c r="O14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -7513,7 +7425,7 @@
         <v>145</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>213</v>
@@ -7526,11 +7438,11 @@
       </c>
       <c r="O15" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P15" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -7565,7 +7477,7 @@
         <v>145</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>213</v>
@@ -7578,11 +7490,11 @@
       </c>
       <c r="O16" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P16" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -7617,7 +7529,7 @@
         <v>145</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>213</v>
@@ -7630,11 +7542,11 @@
       </c>
       <c r="O17" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P17" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -7669,7 +7581,7 @@
         <v>145</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>213</v>
@@ -7682,11 +7594,11 @@
       </c>
       <c r="O18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -7721,7 +7633,7 @@
         <v>145</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>213</v>
@@ -7734,11 +7646,11 @@
       </c>
       <c r="O19" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P19" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -7773,7 +7685,7 @@
         <v>145</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>213</v>
@@ -7786,11 +7698,11 @@
       </c>
       <c r="O20" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P20" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -7825,7 +7737,7 @@
         <v>145</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>213</v>
@@ -7838,11 +7750,11 @@
       </c>
       <c r="O21" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P21" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -7877,7 +7789,7 @@
         <v>145</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>213</v>
@@ -7890,11 +7802,11 @@
       </c>
       <c r="O22" s="6">
         <f t="shared" ref="O22:P41" ca="1" si="1">TODAY()</f>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P22" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -7929,7 +7841,7 @@
         <v>145</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>213</v>
@@ -7942,11 +7854,11 @@
       </c>
       <c r="O23" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P23" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -7981,7 +7893,7 @@
         <v>145</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>213</v>
@@ -7994,11 +7906,11 @@
       </c>
       <c r="O24" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P24" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -8033,7 +7945,7 @@
         <v>145</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>213</v>
@@ -8046,11 +7958,11 @@
       </c>
       <c r="O25" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P25" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -8085,7 +7997,7 @@
         <v>145</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>213</v>
@@ -8098,11 +8010,11 @@
       </c>
       <c r="O26" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P26" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -8137,7 +8049,7 @@
         <v>145</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>213</v>
@@ -8150,11 +8062,11 @@
       </c>
       <c r="O27" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P27" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -8189,7 +8101,7 @@
         <v>145</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>213</v>
@@ -8202,11 +8114,11 @@
       </c>
       <c r="O28" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P28" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -8241,7 +8153,7 @@
         <v>145</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>213</v>
@@ -8254,11 +8166,11 @@
       </c>
       <c r="O29" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P29" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -8293,7 +8205,7 @@
         <v>145</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>213</v>
@@ -8306,11 +8218,11 @@
       </c>
       <c r="O30" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P30" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -8345,7 +8257,7 @@
         <v>145</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>213</v>
@@ -8358,11 +8270,11 @@
       </c>
       <c r="O31" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P31" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -8397,7 +8309,7 @@
         <v>145</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>213</v>
@@ -8410,11 +8322,11 @@
       </c>
       <c r="O32" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P32" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -8449,7 +8361,7 @@
         <v>145</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>213</v>
@@ -8462,11 +8374,11 @@
       </c>
       <c r="O33" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P33" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -8501,7 +8413,7 @@
         <v>145</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>213</v>
@@ -8514,11 +8426,11 @@
       </c>
       <c r="O34" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P34" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -8553,7 +8465,7 @@
         <v>145</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>213</v>
@@ -8566,11 +8478,11 @@
       </c>
       <c r="O35" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P35" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -8605,7 +8517,7 @@
         <v>145</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>213</v>
@@ -8618,11 +8530,11 @@
       </c>
       <c r="O36" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P36" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -8657,7 +8569,7 @@
         <v>145</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>213</v>
@@ -8670,11 +8582,11 @@
       </c>
       <c r="O37" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P37" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -8709,7 +8621,7 @@
         <v>145</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>213</v>
@@ -8722,11 +8634,11 @@
       </c>
       <c r="O38" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P38" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -8761,7 +8673,7 @@
         <v>145</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>213</v>
@@ -8774,11 +8686,11 @@
       </c>
       <c r="O39" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P39" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -8813,7 +8725,7 @@
         <v>145</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>213</v>
@@ -8826,11 +8738,11 @@
       </c>
       <c r="O40" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P40" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -8865,7 +8777,7 @@
         <v>145</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>213</v>
@@ -8878,11 +8790,11 @@
       </c>
       <c r="O41" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P41" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -8917,7 +8829,7 @@
         <v>145</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>213</v>
@@ -8930,11 +8842,11 @@
       </c>
       <c r="O42" s="6">
         <f t="shared" ref="O42:P61" ca="1" si="2">TODAY()</f>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P42" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -8969,7 +8881,7 @@
         <v>145</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>213</v>
@@ -8982,11 +8894,11 @@
       </c>
       <c r="O43" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P43" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -9021,7 +8933,7 @@
         <v>145</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>213</v>
@@ -9034,11 +8946,11 @@
       </c>
       <c r="O44" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P44" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -9073,7 +8985,7 @@
         <v>145</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>213</v>
@@ -9086,11 +8998,11 @@
       </c>
       <c r="O45" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P45" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -9125,7 +9037,7 @@
         <v>145</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>213</v>
@@ -9138,11 +9050,11 @@
       </c>
       <c r="O46" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P46" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -9177,7 +9089,7 @@
         <v>145</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>213</v>
@@ -9190,11 +9102,11 @@
       </c>
       <c r="O47" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P47" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -9229,7 +9141,7 @@
         <v>145</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>213</v>
@@ -9242,11 +9154,11 @@
       </c>
       <c r="O48" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P48" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -9281,7 +9193,7 @@
         <v>145</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>213</v>
@@ -9294,11 +9206,11 @@
       </c>
       <c r="O49" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P49" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -9333,7 +9245,7 @@
         <v>145</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>213</v>
@@ -9346,11 +9258,11 @@
       </c>
       <c r="O50" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P50" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -9385,7 +9297,7 @@
         <v>145</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>213</v>
@@ -9398,11 +9310,11 @@
       </c>
       <c r="O51" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P51" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -9437,7 +9349,7 @@
         <v>145</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>213</v>
@@ -9450,11 +9362,11 @@
       </c>
       <c r="O52" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P52" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -9489,7 +9401,7 @@
         <v>145</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>213</v>
@@ -9502,11 +9414,11 @@
       </c>
       <c r="O53" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P53" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -9541,7 +9453,7 @@
         <v>145</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>213</v>
@@ -9554,11 +9466,11 @@
       </c>
       <c r="O54" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P54" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -9593,7 +9505,7 @@
         <v>145</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>213</v>
@@ -9606,11 +9518,11 @@
       </c>
       <c r="O55" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P55" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -9645,7 +9557,7 @@
         <v>145</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>213</v>
@@ -9658,11 +9570,11 @@
       </c>
       <c r="O56" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P56" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -9697,7 +9609,7 @@
         <v>145</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>213</v>
@@ -9710,11 +9622,11 @@
       </c>
       <c r="O57" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P57" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -9749,7 +9661,7 @@
         <v>145</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>213</v>
@@ -9762,11 +9674,11 @@
       </c>
       <c r="O58" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P58" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -9801,7 +9713,7 @@
         <v>145</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>213</v>
@@ -9814,11 +9726,11 @@
       </c>
       <c r="O59" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P59" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -9853,7 +9765,7 @@
         <v>145</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>213</v>
@@ -9866,11 +9778,11 @@
       </c>
       <c r="O60" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P60" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -9918,11 +9830,11 @@
       </c>
       <c r="O61" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P61" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -9970,11 +9882,11 @@
       </c>
       <c r="O62" s="6">
         <f t="shared" ref="O62:P78" ca="1" si="3">TODAY()</f>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P62" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -10022,11 +9934,11 @@
       </c>
       <c r="O63" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P63" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -10074,11 +9986,11 @@
       </c>
       <c r="O64" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P64" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -10126,11 +10038,11 @@
       </c>
       <c r="O65" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P65" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -10178,11 +10090,11 @@
       </c>
       <c r="O66" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P66" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -10230,11 +10142,11 @@
       </c>
       <c r="O67" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P67" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -10282,11 +10194,11 @@
       </c>
       <c r="O68" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P68" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -10334,11 +10246,11 @@
       </c>
       <c r="O69" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P69" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -10386,11 +10298,11 @@
       </c>
       <c r="O70" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P70" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -10438,11 +10350,11 @@
       </c>
       <c r="O71" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P71" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -10490,11 +10402,11 @@
       </c>
       <c r="O72" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P72" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -10542,11 +10454,11 @@
       </c>
       <c r="O73" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P73" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -10594,11 +10506,11 @@
       </c>
       <c r="O74" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P74" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -10646,11 +10558,11 @@
       </c>
       <c r="O75" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P75" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -10685,7 +10597,7 @@
         <v>145</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>213</v>
@@ -10698,11 +10610,11 @@
       </c>
       <c r="O76" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P76" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -10737,7 +10649,7 @@
         <v>145</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>214</v>
@@ -10750,11 +10662,11 @@
       </c>
       <c r="O77" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P77" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -10789,7 +10701,7 @@
         <v>145</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>213</v>
@@ -10802,11 +10714,11 @@
       </c>
       <c r="O78" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P78" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -10841,7 +10753,7 @@
         <v>145</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>273</v>
@@ -10854,11 +10766,11 @@
       </c>
       <c r="O79" s="6">
         <f t="shared" ref="O79:P106" ca="1" si="4">TODAY()</f>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P79" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -10893,7 +10805,7 @@
         <v>145</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>273</v>
@@ -10906,11 +10818,11 @@
       </c>
       <c r="O80" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P80" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -10945,7 +10857,7 @@
         <v>145</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L81" s="1" t="s">
         <v>273</v>
@@ -10958,11 +10870,11 @@
       </c>
       <c r="O81" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P81" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -10997,7 +10909,7 @@
         <v>145</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>273</v>
@@ -11010,11 +10922,11 @@
       </c>
       <c r="O82" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P82" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -11049,7 +10961,7 @@
         <v>145</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L83" s="1" t="s">
         <v>274</v>
@@ -11062,11 +10974,11 @@
       </c>
       <c r="O83" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P83" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -11101,7 +11013,7 @@
         <v>145</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L84" s="1" t="s">
         <v>274</v>
@@ -11114,11 +11026,11 @@
       </c>
       <c r="O84" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P84" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -11153,7 +11065,7 @@
         <v>145</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L85" s="1" t="s">
         <v>274</v>
@@ -11166,11 +11078,11 @@
       </c>
       <c r="O85" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P85" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -11205,7 +11117,7 @@
         <v>145</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L86" s="1" t="s">
         <v>274</v>
@@ -11218,11 +11130,11 @@
       </c>
       <c r="O86" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P86" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -11257,7 +11169,7 @@
         <v>145</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L87" s="1" t="s">
         <v>274</v>
@@ -11270,11 +11182,11 @@
       </c>
       <c r="O87" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P87" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -11309,7 +11221,7 @@
         <v>145</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L88" s="1" t="s">
         <v>274</v>
@@ -11322,11 +11234,11 @@
       </c>
       <c r="O88" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P88" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -11361,7 +11273,7 @@
         <v>145</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L89" s="1" t="s">
         <v>274</v>
@@ -11374,11 +11286,11 @@
       </c>
       <c r="O89" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P89" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -11413,7 +11325,7 @@
         <v>145</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L90" s="1" t="s">
         <v>274</v>
@@ -11426,11 +11338,11 @@
       </c>
       <c r="O90" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P90" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -11465,7 +11377,7 @@
         <v>145</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L91" s="1" t="s">
         <v>274</v>
@@ -11478,11 +11390,11 @@
       </c>
       <c r="O91" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P91" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -11517,7 +11429,7 @@
         <v>145</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L92" s="1" t="s">
         <v>274</v>
@@ -11530,11 +11442,11 @@
       </c>
       <c r="O92" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P92" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -11569,7 +11481,7 @@
         <v>145</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L93" s="1" t="s">
         <v>274</v>
@@ -11582,11 +11494,11 @@
       </c>
       <c r="O93" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P93" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -11621,7 +11533,7 @@
         <v>145</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L94" s="1" t="s">
         <v>274</v>
@@ -11634,11 +11546,11 @@
       </c>
       <c r="O94" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P94" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -11686,11 +11598,11 @@
       </c>
       <c r="O95" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P95" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -11738,11 +11650,11 @@
       </c>
       <c r="O96" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P96" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -11790,11 +11702,11 @@
       </c>
       <c r="O97" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P97" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -11842,11 +11754,11 @@
       </c>
       <c r="O98" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P98" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -11894,11 +11806,11 @@
       </c>
       <c r="O99" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P99" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -11933,7 +11845,7 @@
         <v>145</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L100" s="1" t="s">
         <v>274</v>
@@ -11946,11 +11858,11 @@
       </c>
       <c r="O100" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P100" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -11985,7 +11897,7 @@
         <v>145</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L101" s="1" t="s">
         <v>274</v>
@@ -11998,11 +11910,11 @@
       </c>
       <c r="O101" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P101" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -12037,7 +11949,7 @@
         <v>145</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="L102" s="1" t="s">
         <v>274</v>
@@ -12050,11 +11962,11 @@
       </c>
       <c r="O102" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P102" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -12102,11 +12014,11 @@
       </c>
       <c r="O103" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P103" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -12154,11 +12066,11 @@
       </c>
       <c r="O104" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P104" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -12206,11 +12118,11 @@
       </c>
       <c r="O105" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P105" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -12258,15 +12170,14 @@
       </c>
       <c r="O106" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="P106" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P106" xr:uid="{2504A63E-7004-434E-A3AD-E1BB16842089}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -12407,8 +12318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB10152-AA42-42BA-9D7E-3F8422C34E4E}">
   <dimension ref="F2:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12507,77 +12418,77 @@
     </row>
     <row r="5" spans="6:7">
       <c r="F5" s="8" t="s">
-        <v>212</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="6:7">
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="6:7">
+      <c r="F7" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="6:7">
+      <c r="F8" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="6:7">
+      <c r="F9" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="6:7">
+      <c r="F10" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="6:7">
+      <c r="F11" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="6:7">
+      <c r="F12" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="6:7">
+      <c r="F13" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="6:7">
+      <c r="F14" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="6:7">
+      <c r="F15" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="6:7">
+      <c r="F16" s="9" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="6:7">
-      <c r="F7" s="10" t="s">
+    <row r="17" spans="6:6">
+      <c r="F17" s="9" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="6:7">
-      <c r="F8" s="10" t="s">
+    <row r="18" spans="6:6">
+      <c r="F18" s="9" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="9" spans="6:7">
-      <c r="F9" s="10" t="s">
+    <row r="19" spans="6:6">
+      <c r="F19" s="9" t="s">
         <v>274</v>
-      </c>
-    </row>
-    <row r="10" spans="6:7">
-      <c r="F10" s="8" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="11" spans="6:7">
-      <c r="F11" s="10" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="12" spans="6:7">
-      <c r="F12" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="6:7">
-      <c r="F13" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="6:7">
-      <c r="F14" s="8" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="15" spans="6:7">
-      <c r="F15" s="9" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="16" spans="6:7">
-      <c r="F16" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="17" spans="6:6">
-      <c r="F17" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="6:6">
-      <c r="F18" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="19" spans="6:6">
-      <c r="F19" s="10" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="20" spans="6:6">
@@ -12591,6 +12502,277 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB847DE-72DD-4908-827C-47C8C4F38687}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="19.8" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="19.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="14.44140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19.8" customHeight="1" thickBot="1">
+      <c r="A1" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19.8" customHeight="1" thickBot="1">
+      <c r="A2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D2" s="3">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="19.8" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D3" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19.8" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D4" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19.8" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19.8" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19.8" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="19.8" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19.8" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D9" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="19.8" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D10" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="19.8" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D11" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="19.8" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D12" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="19.8" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D13" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="19.8" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D14" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="19.8" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D15" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="19.8" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D16" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="19.8" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D17" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="19.8" customHeight="1">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1104F42-6122-4AF9-A63B-0A323A430B6D}">
   <dimension ref="A1:N76"/>
   <sheetViews>
@@ -13653,7 +13835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508CD5CE-13DD-4328-89A9-84AD8D4C38A0}">
   <dimension ref="A1:R78"/>
   <sheetViews>
@@ -13785,11 +13967,11 @@
       </c>
       <c r="Q2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -13837,11 +14019,11 @@
       </c>
       <c r="Q3" s="6">
         <f t="shared" ref="Q3:R18" ca="1" si="0">TODAY()</f>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -13889,11 +14071,11 @@
       </c>
       <c r="Q4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -13941,11 +14123,11 @@
       </c>
       <c r="Q5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -13993,11 +14175,11 @@
       </c>
       <c r="Q6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -14045,11 +14227,11 @@
       </c>
       <c r="Q7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -14097,11 +14279,11 @@
       </c>
       <c r="Q8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -14149,11 +14331,11 @@
       </c>
       <c r="Q9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -14201,11 +14383,11 @@
       </c>
       <c r="Q10" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R10" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -14253,11 +14435,11 @@
       </c>
       <c r="Q11" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R11" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -14305,11 +14487,11 @@
       </c>
       <c r="Q12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -14357,11 +14539,11 @@
       </c>
       <c r="Q13" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R13" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -14409,11 +14591,11 @@
       </c>
       <c r="Q14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -14461,11 +14643,11 @@
       </c>
       <c r="Q15" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R15" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -14513,11 +14695,11 @@
       </c>
       <c r="Q16" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R16" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -14565,11 +14747,11 @@
       </c>
       <c r="Q17" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R17" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -14617,11 +14799,11 @@
       </c>
       <c r="Q18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -14669,11 +14851,11 @@
       </c>
       <c r="Q19" s="6">
         <f t="shared" ref="Q19:R78" ca="1" si="1">TODAY()</f>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R19" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -14721,11 +14903,11 @@
       </c>
       <c r="Q20" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R20" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -14773,11 +14955,11 @@
       </c>
       <c r="Q21" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R21" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -14825,11 +15007,11 @@
       </c>
       <c r="Q22" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R22" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -14877,11 +15059,11 @@
       </c>
       <c r="Q23" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R23" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -14929,11 +15111,11 @@
       </c>
       <c r="Q24" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R24" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -14981,11 +15163,11 @@
       </c>
       <c r="Q25" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R25" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -15033,11 +15215,11 @@
       </c>
       <c r="Q26" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R26" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -15085,11 +15267,11 @@
       </c>
       <c r="Q27" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R27" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -15137,11 +15319,11 @@
       </c>
       <c r="Q28" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R28" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -15189,11 +15371,11 @@
       </c>
       <c r="Q29" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R29" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -15241,11 +15423,11 @@
       </c>
       <c r="Q30" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R30" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -15293,11 +15475,11 @@
       </c>
       <c r="Q31" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R31" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -15345,11 +15527,11 @@
       </c>
       <c r="Q32" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R32" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -15397,11 +15579,11 @@
       </c>
       <c r="Q33" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R33" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -15449,11 +15631,11 @@
       </c>
       <c r="Q34" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R34" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -15501,11 +15683,11 @@
       </c>
       <c r="Q35" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R35" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -15553,11 +15735,11 @@
       </c>
       <c r="Q36" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R36" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -15605,11 +15787,11 @@
       </c>
       <c r="Q37" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R37" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -15657,11 +15839,11 @@
       </c>
       <c r="Q38" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R38" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -15709,11 +15891,11 @@
       </c>
       <c r="Q39" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R39" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -15761,11 +15943,11 @@
       </c>
       <c r="Q40" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R40" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -15813,11 +15995,11 @@
       </c>
       <c r="Q41" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R41" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -15865,11 +16047,11 @@
       </c>
       <c r="Q42" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R42" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -15917,11 +16099,11 @@
       </c>
       <c r="Q43" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R43" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -15969,11 +16151,11 @@
       </c>
       <c r="Q44" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R44" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -16021,11 +16203,11 @@
       </c>
       <c r="Q45" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R45" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -16073,11 +16255,11 @@
       </c>
       <c r="Q46" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R46" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -16125,11 +16307,11 @@
       </c>
       <c r="Q47" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R47" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -16177,11 +16359,11 @@
       </c>
       <c r="Q48" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R48" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -16229,11 +16411,11 @@
       </c>
       <c r="Q49" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R49" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -16281,11 +16463,11 @@
       </c>
       <c r="Q50" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R50" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -16333,11 +16515,11 @@
       </c>
       <c r="Q51" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R51" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -16385,11 +16567,11 @@
       </c>
       <c r="Q52" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R52" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -16437,11 +16619,11 @@
       </c>
       <c r="Q53" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R53" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -16489,11 +16671,11 @@
       </c>
       <c r="Q54" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R54" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -16541,11 +16723,11 @@
       </c>
       <c r="Q55" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R55" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -16593,11 +16775,11 @@
       </c>
       <c r="Q56" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R56" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -16645,11 +16827,11 @@
       </c>
       <c r="Q57" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R57" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -16697,11 +16879,11 @@
       </c>
       <c r="Q58" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R58" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -16749,11 +16931,11 @@
       </c>
       <c r="Q59" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R59" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -16801,11 +16983,11 @@
       </c>
       <c r="Q60" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R60" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -16853,11 +17035,11 @@
       </c>
       <c r="Q61" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R61" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -16905,11 +17087,11 @@
       </c>
       <c r="Q62" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R62" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -16957,11 +17139,11 @@
       </c>
       <c r="Q63" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R63" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -17009,11 +17191,11 @@
       </c>
       <c r="Q64" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R64" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -17061,11 +17243,11 @@
       </c>
       <c r="Q65" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R65" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -17113,11 +17295,11 @@
       </c>
       <c r="Q66" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R66" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -17165,11 +17347,11 @@
       </c>
       <c r="Q67" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R67" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -17217,11 +17399,11 @@
       </c>
       <c r="Q68" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R68" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -17269,11 +17451,11 @@
       </c>
       <c r="Q69" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R69" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -17321,11 +17503,11 @@
       </c>
       <c r="Q70" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R70" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -17373,11 +17555,11 @@
       </c>
       <c r="Q71" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R71" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -17425,11 +17607,11 @@
       </c>
       <c r="Q72" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R72" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -17477,11 +17659,11 @@
       </c>
       <c r="Q73" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R73" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -17529,11 +17711,11 @@
       </c>
       <c r="Q74" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R74" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -17581,11 +17763,11 @@
       </c>
       <c r="Q75" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R75" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -17633,11 +17815,11 @@
       </c>
       <c r="Q76" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R76" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -17685,11 +17867,11 @@
       </c>
       <c r="Q77" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R77" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -17737,11 +17919,11 @@
       </c>
       <c r="Q78" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="R78" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45490</v>
+        <v>45495</v>
       </c>
     </row>
   </sheetData>

--- a/Documentos/Mapeamento das Fontes de Dados/CADASTRO/CADASTRO.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/CADASTRO/CADASTRO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\CADASTRO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\04 - PROJETOS\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\CADASTRO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F6F558-02A8-4290-A004-969036D37258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A812816-506A-4B3A-8088-6B8B3DD8BEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{D97F085D-39BF-40A8-913E-D715D9E5FECC}"/>
   </bookViews>
@@ -30,7 +30,7 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId9"/>
-    <pivotCache cacheId="7" r:id="rId10"/>
+    <pivotCache cacheId="1" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -976,7 +976,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4467,7 +4467,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B8918806-DD0E-4B54-A330-E9BDFB54C70F}" name="Tabela dinâmica1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B8918806-DD0E-4B54-A330-E9BDFB54C70F}" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F4:F20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
@@ -5096,7 +5096,7 @@
       <selection activeCell="B27" sqref="B27:B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.33203125" style="2" bestFit="1" customWidth="1"/>
@@ -5111,7 +5111,7 @@
     <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>133</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>168</v>
       </c>
@@ -5196,7 +5196,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>169</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>170</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>171</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>130</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>192</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>131</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>110</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>93</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>95</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>114</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>115</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>91</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>116</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>175</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>176</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>118</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>144</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>127</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>188</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>189</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>186</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>164</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>165</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>166</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>167</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>121</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>122</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>179</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>119</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>172</v>
       </c>
@@ -5532,7 +5532,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>173</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>174</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>141</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>120</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>180</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>181</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>191</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>123</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>184</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>182</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>183</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>143</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>128</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>94</v>
       </c>
@@ -5686,7 +5686,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>107</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>104</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>103</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>105</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>96</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>145</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>134</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>146</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>132</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>160</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>161</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>162</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>163</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>142</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>129</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>124</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>126</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>92</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>112</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>177</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>178</v>
       </c>
@@ -5917,7 +5917,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>153</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>135</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>154</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>155</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>156</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>157</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>147</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>148</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>149</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>150</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>151</v>
       </c>
@@ -6038,7 +6038,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>152</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>159</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>187</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>109</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>111</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>106</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>108</v>
       </c>
@@ -6128,7 +6128,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61.21875" bestFit="1" customWidth="1"/>
@@ -6137,7 +6137,7 @@
     <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>92</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>454</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>461</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>353</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>335</v>
       </c>
@@ -6222,7 +6222,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>211</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>346</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>413</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>319</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>492</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>415</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>416</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>417</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>418</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>419</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>460</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>340</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>515</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>516</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>517</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>518</v>
       </c>
@@ -6494,7 +6494,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>519</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>520</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>543</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>547</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>548</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>573</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>574</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>575</v>
       </c>
@@ -6643,10 +6643,10 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.21875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
@@ -6667,7 +6667,7 @@
     <col min="17" max="16384" width="10.21875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="24" customHeight="1" thickBot="1">
+    <row r="1" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>150</v>
       </c>
@@ -6710,14 +6710,14 @@
       <c r="N1" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -6760,16 +6760,10 @@
       <c r="N2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O2" s="6">
-        <f t="shared" ref="O2:P21" ca="1" si="0">TODAY()</f>
-        <v>45495</v>
-      </c>
-      <c r="P2" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -6812,16 +6806,10 @@
       <c r="N3" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O3" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-      <c r="P3" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -6864,16 +6852,10 @@
       <c r="N4" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O4" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-      <c r="P4" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -6916,16 +6898,10 @@
       <c r="N5" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O5" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-      <c r="P5" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -6968,16 +6944,10 @@
       <c r="N6" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O6" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-      <c r="P6" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -7020,16 +6990,10 @@
       <c r="N7" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O7" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-      <c r="P7" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -7072,16 +7036,10 @@
       <c r="N8" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O8" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-      <c r="P8" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -7124,16 +7082,10 @@
       <c r="N9" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O9" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-      <c r="P9" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -7176,16 +7128,10 @@
       <c r="N10" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O10" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-      <c r="P10" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -7228,16 +7174,10 @@
       <c r="N11" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O11" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-      <c r="P11" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -7280,16 +7220,10 @@
       <c r="N12" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O12" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-      <c r="P12" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -7332,16 +7266,10 @@
       <c r="N13" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O13" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-      <c r="P13" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -7384,16 +7312,10 @@
       <c r="N14" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O14" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-      <c r="P14" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -7436,16 +7358,10 @@
       <c r="N15" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O15" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-      <c r="P15" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -7488,16 +7404,10 @@
       <c r="N16" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O16" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-      <c r="P16" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -7540,16 +7450,10 @@
       <c r="N17" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="O17" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-      <c r="P17" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -7592,16 +7496,10 @@
       <c r="N18" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="O18" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-      <c r="P18" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -7644,16 +7542,10 @@
       <c r="N19" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="O19" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-      <c r="P19" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -7696,16 +7588,10 @@
       <c r="N20" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="O20" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-      <c r="P20" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -7748,16 +7634,10 @@
       <c r="N21" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O21" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-      <c r="P21" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -7800,16 +7680,10 @@
       <c r="N22" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O22" s="6">
-        <f t="shared" ref="O22:P41" ca="1" si="1">TODAY()</f>
-        <v>45495</v>
-      </c>
-      <c r="P22" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -7852,16 +7726,10 @@
       <c r="N23" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O23" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-      <c r="P23" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -7904,16 +7772,10 @@
       <c r="N24" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O24" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-      <c r="P24" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -7956,16 +7818,10 @@
       <c r="N25" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O25" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-      <c r="P25" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -8008,16 +7864,10 @@
       <c r="N26" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O26" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-      <c r="P26" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -8060,16 +7910,10 @@
       <c r="N27" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O27" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-      <c r="P27" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -8112,16 +7956,10 @@
       <c r="N28" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O28" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-      <c r="P28" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -8164,16 +8002,10 @@
       <c r="N29" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O29" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-      <c r="P29" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -8216,16 +8048,10 @@
       <c r="N30" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O30" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-      <c r="P30" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -8268,16 +8094,10 @@
       <c r="N31" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O31" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-      <c r="P31" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -8320,16 +8140,10 @@
       <c r="N32" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O32" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-      <c r="P32" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -8372,16 +8186,10 @@
       <c r="N33" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O33" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-      <c r="P33" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -8424,16 +8232,10 @@
       <c r="N34" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O34" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-      <c r="P34" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -8476,16 +8278,10 @@
       <c r="N35" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O35" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-      <c r="P35" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -8528,16 +8324,10 @@
       <c r="N36" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O36" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-      <c r="P36" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -8580,16 +8370,10 @@
       <c r="N37" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O37" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-      <c r="P37" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -8632,16 +8416,10 @@
       <c r="N38" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="O38" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-      <c r="P38" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -8684,16 +8462,10 @@
       <c r="N39" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="O39" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-      <c r="P39" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -8736,16 +8508,10 @@
       <c r="N40" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="O40" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-      <c r="P40" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -8788,16 +8554,10 @@
       <c r="N41" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O41" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-      <c r="P41" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -8840,16 +8600,10 @@
       <c r="N42" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O42" s="6">
-        <f t="shared" ref="O42:P61" ca="1" si="2">TODAY()</f>
-        <v>45495</v>
-      </c>
-      <c r="P42" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -8892,16 +8646,10 @@
       <c r="N43" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O43" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>45495</v>
-      </c>
-      <c r="P43" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -8944,16 +8692,10 @@
       <c r="N44" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O44" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>45495</v>
-      </c>
-      <c r="P44" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -8996,16 +8738,10 @@
       <c r="N45" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O45" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>45495</v>
-      </c>
-      <c r="P45" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16">
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -9048,16 +8784,10 @@
       <c r="N46" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O46" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>45495</v>
-      </c>
-      <c r="P46" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -9100,16 +8830,10 @@
       <c r="N47" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O47" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>45495</v>
-      </c>
-      <c r="P47" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -9152,16 +8876,10 @@
       <c r="N48" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O48" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>45495</v>
-      </c>
-      <c r="P48" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -9204,16 +8922,10 @@
       <c r="N49" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O49" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>45495</v>
-      </c>
-      <c r="P49" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -9256,16 +8968,10 @@
       <c r="N50" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O50" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>45495</v>
-      </c>
-      <c r="P50" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -9308,16 +9014,10 @@
       <c r="N51" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O51" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>45495</v>
-      </c>
-      <c r="P51" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16">
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -9360,16 +9060,10 @@
       <c r="N52" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O52" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>45495</v>
-      </c>
-      <c r="P52" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16">
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -9412,16 +9106,10 @@
       <c r="N53" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O53" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>45495</v>
-      </c>
-      <c r="P53" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16">
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -9464,16 +9152,10 @@
       <c r="N54" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O54" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>45495</v>
-      </c>
-      <c r="P54" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16">
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -9516,16 +9198,10 @@
       <c r="N55" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O55" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>45495</v>
-      </c>
-      <c r="P55" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16">
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -9568,16 +9244,10 @@
       <c r="N56" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O56" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>45495</v>
-      </c>
-      <c r="P56" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16">
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -9620,16 +9290,10 @@
       <c r="N57" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O57" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>45495</v>
-      </c>
-      <c r="P57" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16">
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -9672,16 +9336,10 @@
       <c r="N58" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O58" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>45495</v>
-      </c>
-      <c r="P58" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16">
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -9724,16 +9382,10 @@
       <c r="N59" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O59" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>45495</v>
-      </c>
-      <c r="P59" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16">
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -9776,16 +9428,10 @@
       <c r="N60" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O60" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>45495</v>
-      </c>
-      <c r="P60" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16">
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -9828,16 +9474,10 @@
       <c r="N61" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O61" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>45495</v>
-      </c>
-      <c r="P61" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16">
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -9880,16 +9520,10 @@
       <c r="N62" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O62" s="6">
-        <f t="shared" ref="O62:P78" ca="1" si="3">TODAY()</f>
-        <v>45495</v>
-      </c>
-      <c r="P62" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16">
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -9932,16 +9566,10 @@
       <c r="N63" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O63" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>45495</v>
-      </c>
-      <c r="P63" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16">
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -9984,16 +9612,10 @@
       <c r="N64" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="O64" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>45495</v>
-      </c>
-      <c r="P64" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16">
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -10036,16 +9658,10 @@
       <c r="N65" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O65" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>45495</v>
-      </c>
-      <c r="P65" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16">
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -10088,16 +9704,10 @@
       <c r="N66" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O66" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>45495</v>
-      </c>
-      <c r="P66" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16">
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -10140,16 +9750,10 @@
       <c r="N67" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O67" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>45495</v>
-      </c>
-      <c r="P67" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16">
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -10192,16 +9796,10 @@
       <c r="N68" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O68" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>45495</v>
-      </c>
-      <c r="P68" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16">
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -10244,16 +9842,10 @@
       <c r="N69" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O69" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>45495</v>
-      </c>
-      <c r="P69" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16">
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -10296,16 +9888,10 @@
       <c r="N70" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O70" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>45495</v>
-      </c>
-      <c r="P70" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16">
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -10348,16 +9934,10 @@
       <c r="N71" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O71" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>45495</v>
-      </c>
-      <c r="P71" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16">
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -10400,16 +9980,10 @@
       <c r="N72" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O72" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>45495</v>
-      </c>
-      <c r="P72" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16">
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -10452,16 +10026,10 @@
       <c r="N73" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O73" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>45495</v>
-      </c>
-      <c r="P73" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16">
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -10504,16 +10072,10 @@
       <c r="N74" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O74" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>45495</v>
-      </c>
-      <c r="P74" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16">
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -10556,16 +10118,10 @@
       <c r="N75" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O75" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>45495</v>
-      </c>
-      <c r="P75" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16">
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -10608,16 +10164,10 @@
       <c r="N76" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="O76" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>45495</v>
-      </c>
-      <c r="P76" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16">
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -10660,16 +10210,10 @@
       <c r="N77" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O77" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>45495</v>
-      </c>
-      <c r="P77" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16">
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -10712,16 +10256,10 @@
       <c r="N78" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="O78" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>45495</v>
-      </c>
-      <c r="P78" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16">
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -10764,16 +10302,10 @@
       <c r="N79" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O79" s="6">
-        <f t="shared" ref="O79:P106" ca="1" si="4">TODAY()</f>
-        <v>45495</v>
-      </c>
-      <c r="P79" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16">
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -10816,16 +10348,10 @@
       <c r="N80" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O80" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-      <c r="P80" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16">
+      <c r="O80" s="6"/>
+      <c r="P80" s="6"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -10868,16 +10394,10 @@
       <c r="N81" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O81" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-      <c r="P81" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16">
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -10920,16 +10440,10 @@
       <c r="N82" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O82" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-      <c r="P82" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16">
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -10972,16 +10486,10 @@
       <c r="N83" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O83" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-      <c r="P83" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16">
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -11024,16 +10532,10 @@
       <c r="N84" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O84" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-      <c r="P84" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16">
+      <c r="O84" s="6"/>
+      <c r="P84" s="6"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -11076,16 +10578,10 @@
       <c r="N85" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O85" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-      <c r="P85" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16">
+      <c r="O85" s="6"/>
+      <c r="P85" s="6"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -11128,16 +10624,10 @@
       <c r="N86" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O86" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-      <c r="P86" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16">
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -11180,16 +10670,10 @@
       <c r="N87" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O87" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-      <c r="P87" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16">
+      <c r="O87" s="6"/>
+      <c r="P87" s="6"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -11232,16 +10716,10 @@
       <c r="N88" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O88" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-      <c r="P88" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16">
+      <c r="O88" s="6"/>
+      <c r="P88" s="6"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -11284,16 +10762,10 @@
       <c r="N89" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O89" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-      <c r="P89" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16">
+      <c r="O89" s="6"/>
+      <c r="P89" s="6"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -11336,16 +10808,10 @@
       <c r="N90" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O90" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-      <c r="P90" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16">
+      <c r="O90" s="6"/>
+      <c r="P90" s="6"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -11388,16 +10854,10 @@
       <c r="N91" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O91" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-      <c r="P91" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16">
+      <c r="O91" s="6"/>
+      <c r="P91" s="6"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -11440,16 +10900,10 @@
       <c r="N92" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O92" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-      <c r="P92" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16">
+      <c r="O92" s="6"/>
+      <c r="P92" s="6"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -11492,16 +10946,10 @@
       <c r="N93" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O93" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-      <c r="P93" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16">
+      <c r="O93" s="6"/>
+      <c r="P93" s="6"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -11544,16 +10992,10 @@
       <c r="N94" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O94" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-      <c r="P94" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16">
+      <c r="O94" s="6"/>
+      <c r="P94" s="6"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -11596,16 +11038,10 @@
       <c r="N95" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O95" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-      <c r="P95" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16">
+      <c r="O95" s="6"/>
+      <c r="P95" s="6"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -11648,16 +11084,10 @@
       <c r="N96" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O96" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-      <c r="P96" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16">
+      <c r="O96" s="6"/>
+      <c r="P96" s="6"/>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -11700,16 +11130,10 @@
       <c r="N97" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O97" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-      <c r="P97" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16">
+      <c r="O97" s="6"/>
+      <c r="P97" s="6"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -11752,16 +11176,10 @@
       <c r="N98" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O98" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-      <c r="P98" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16">
+      <c r="O98" s="6"/>
+      <c r="P98" s="6"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -11804,16 +11222,10 @@
       <c r="N99" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O99" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-      <c r="P99" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16">
+      <c r="O99" s="6"/>
+      <c r="P99" s="6"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -11856,16 +11268,10 @@
       <c r="N100" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O100" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-      <c r="P100" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16">
+      <c r="O100" s="6"/>
+      <c r="P100" s="6"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -11908,16 +11314,10 @@
       <c r="N101" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O101" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-      <c r="P101" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16">
+      <c r="O101" s="6"/>
+      <c r="P101" s="6"/>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -11960,16 +11360,10 @@
       <c r="N102" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O102" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-      <c r="P102" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16">
+      <c r="O102" s="6"/>
+      <c r="P102" s="6"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -12012,16 +11406,10 @@
       <c r="N103" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O103" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-      <c r="P103" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16">
+      <c r="O103" s="6"/>
+      <c r="P103" s="6"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -12064,16 +11452,10 @@
       <c r="N104" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O104" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-      <c r="P104" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16">
+      <c r="O104" s="6"/>
+      <c r="P104" s="6"/>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -12116,16 +11498,10 @@
       <c r="N105" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O105" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-      <c r="P105" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16">
+      <c r="O105" s="6"/>
+      <c r="P105" s="6"/>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -12168,14 +11544,8 @@
       <c r="N106" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O106" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
-      <c r="P106" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>45495</v>
-      </c>
+      <c r="O106" s="6"/>
+      <c r="P106" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -12191,7 +11561,7 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="43.88671875" style="2" bestFit="1" customWidth="1"/>
@@ -12199,7 +11569,7 @@
     <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>222</v>
       </c>
@@ -12210,7 +11580,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1">
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>150</v>
       </c>
@@ -12221,7 +11591,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1">
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>135</v>
       </c>
@@ -12232,7 +11602,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1">
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>219</v>
       </c>
@@ -12243,7 +11613,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1">
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>220</v>
       </c>
@@ -12254,7 +11624,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1">
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>151</v>
       </c>
@@ -12265,7 +11635,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1">
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>152</v>
       </c>
@@ -12276,7 +11646,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1">
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>153</v>
       </c>
@@ -12287,7 +11657,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1">
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>154</v>
       </c>
@@ -12298,7 +11668,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1">
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>155</v>
       </c>
@@ -12322,7 +11692,7 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
@@ -12403,7 +11773,7 @@
     <col min="111" max="111" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="6:7">
+    <row r="2" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F2" s="7" t="s">
         <v>156</v>
       </c>
@@ -12411,87 +11781,87 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="6:7">
+    <row r="4" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F4" s="7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="6:7">
+    <row r="5" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F5" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="6:7">
+    <row r="6" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F6" s="9" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="6:7">
+    <row r="7" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F7" s="8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="6:7">
+    <row r="8" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F8" s="9" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="6:7">
+    <row r="9" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F9" s="8" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="10" spans="6:7">
+    <row r="10" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F10" s="9" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="11" spans="6:7">
+    <row r="11" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F11" s="8" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="6:7">
+    <row r="12" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F12" s="9" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="6:7">
+    <row r="13" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F13" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="6:7">
+    <row r="14" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F14" s="9" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="6:7">
+    <row r="15" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F15" s="8" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="16" spans="6:7">
+    <row r="16" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F16" s="9" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="6:6">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F17" s="9" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="6:6">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F18" s="9" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="19" spans="6:6">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F19" s="9" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="20" spans="6:6">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F20" s="8" t="s">
         <v>217</v>
       </c>
@@ -12509,7 +11879,7 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="19.8" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -12519,7 +11889,7 @@
     <col min="6" max="16384" width="14.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.8" customHeight="1" thickBot="1">
+    <row r="1" spans="1:5" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>281</v>
       </c>
@@ -12536,7 +11906,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19.8" customHeight="1" thickBot="1">
+    <row r="2" spans="1:5" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>150</v>
       </c>
@@ -12553,7 +11923,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19.8" customHeight="1">
+    <row r="3" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>135</v>
       </c>
@@ -12567,7 +11937,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19.8" customHeight="1">
+    <row r="4" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>219</v>
       </c>
@@ -12581,7 +11951,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="19.8" customHeight="1">
+    <row r="5" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>220</v>
       </c>
@@ -12595,7 +11965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="19.8" customHeight="1">
+    <row r="6" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>151</v>
       </c>
@@ -12609,7 +11979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="19.8" customHeight="1">
+    <row r="7" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>152</v>
       </c>
@@ -12623,7 +11993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="19.8" customHeight="1">
+    <row r="8" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>153</v>
       </c>
@@ -12637,7 +12007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="19.8" customHeight="1">
+    <row r="9" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>154</v>
       </c>
@@ -12651,7 +12021,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="19.8" customHeight="1">
+    <row r="10" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>155</v>
       </c>
@@ -12665,7 +12035,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="19.8" customHeight="1">
+    <row r="11" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>156</v>
       </c>
@@ -12679,7 +12049,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="19.8" customHeight="1">
+    <row r="12" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>158</v>
       </c>
@@ -12693,7 +12063,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="19.8" customHeight="1">
+    <row r="13" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>159</v>
       </c>
@@ -12707,7 +12077,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="19.8" customHeight="1">
+    <row r="14" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>160</v>
       </c>
@@ -12721,7 +12091,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="19.8" customHeight="1">
+    <row r="15" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>133</v>
       </c>
@@ -12735,7 +12105,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="19.8" customHeight="1">
+    <row r="16" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>164</v>
       </c>
@@ -12749,7 +12119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="19.8" customHeight="1">
+    <row r="17" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>165</v>
       </c>
@@ -12763,7 +12133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="19.8" customHeight="1">
+    <row r="19" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
     </row>
@@ -12778,7 +12148,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.21875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
@@ -12793,7 +12163,7 @@
     <col min="15" max="16384" width="10.21875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>151</v>
       </c>
@@ -12813,7 +12183,7 @@
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -12829,7 +12199,7 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>216</v>
       </c>
@@ -12846,7 +12216,7 @@
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>210</v>
       </c>
@@ -12864,7 +12234,7 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>209</v>
       </c>
@@ -12882,7 +12252,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -12900,7 +12270,7 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>51</v>
       </c>
@@ -12918,7 +12288,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>76</v>
       </c>
@@ -12936,7 +12306,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>211</v>
       </c>
@@ -12954,7 +12324,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>138</v>
       </c>
@@ -12970,7 +12340,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>184</v>
       </c>
@@ -12986,7 +12356,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>217</v>
       </c>
@@ -12997,7 +12367,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -13006,7 +12376,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -13015,7 +12385,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -13030,7 +12400,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -13045,7 +12415,7 @@
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -13060,7 +12430,7 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -13075,7 +12445,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -13088,7 +12458,7 @@
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -13101,7 +12471,7 @@
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -13114,7 +12484,7 @@
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -13127,7 +12497,7 @@
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -13140,7 +12510,7 @@
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -13153,7 +12523,7 @@
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -13166,7 +12536,7 @@
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -13179,7 +12549,7 @@
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -13192,7 +12562,7 @@
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -13205,7 +12575,7 @@
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -13218,7 +12588,7 @@
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -13231,7 +12601,7 @@
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -13244,7 +12614,7 @@
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -13257,7 +12627,7 @@
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -13270,7 +12640,7 @@
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -13283,7 +12653,7 @@
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -13296,7 +12666,7 @@
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -13309,7 +12679,7 @@
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -13322,7 +12692,7 @@
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -13335,7 +12705,7 @@
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -13348,7 +12718,7 @@
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -13361,7 +12731,7 @@
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -13374,7 +12744,7 @@
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -13387,7 +12757,7 @@
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -13400,7 +12770,7 @@
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -13413,7 +12783,7 @@
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -13426,7 +12796,7 @@
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -13439,7 +12809,7 @@
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -13452,7 +12822,7 @@
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -13465,7 +12835,7 @@
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -13478,7 +12848,7 @@
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -13491,7 +12861,7 @@
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -13504,7 +12874,7 @@
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -13517,7 +12887,7 @@
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -13530,7 +12900,7 @@
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -13543,7 +12913,7 @@
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -13556,7 +12926,7 @@
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -13569,7 +12939,7 @@
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -13582,7 +12952,7 @@
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -13595,7 +12965,7 @@
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -13608,7 +12978,7 @@
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -13621,7 +12991,7 @@
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -13634,7 +13004,7 @@
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -13647,7 +13017,7 @@
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -13660,7 +13030,7 @@
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -13673,7 +13043,7 @@
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -13686,7 +13056,7 @@
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -13699,7 +13069,7 @@
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -13712,7 +13082,7 @@
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -13725,7 +13095,7 @@
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -13738,7 +13108,7 @@
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -13751,7 +13121,7 @@
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -13764,7 +13134,7 @@
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -13777,7 +13147,7 @@
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -13790,7 +13160,7 @@
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -13803,7 +13173,7 @@
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -13816,7 +13186,7 @@
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -13843,7 +13213,7 @@
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.21875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
@@ -13866,7 +13236,7 @@
     <col min="19" max="16384" width="10.21875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="24" customHeight="1" thickBot="1">
+    <row r="1" spans="1:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>150</v>
       </c>
@@ -13922,7 +13292,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -13974,7 +13344,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -14026,7 +13396,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -14078,7 +13448,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -14130,7 +13500,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -14182,7 +13552,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -14234,7 +13604,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -14286,7 +13656,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -14338,7 +13708,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -14390,7 +13760,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -14442,7 +13812,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -14494,7 +13864,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -14546,7 +13916,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -14598,7 +13968,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -14650,7 +14020,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -14702,7 +14072,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -14754,7 +14124,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -14806,7 +14176,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -14858,7 +14228,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -14910,7 +14280,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -14962,7 +14332,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -15014,7 +14384,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -15066,7 +14436,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -15118,7 +14488,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -15170,7 +14540,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -15222,7 +14592,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -15274,7 +14644,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -15326,7 +14696,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -15378,7 +14748,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -15430,7 +14800,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -15482,7 +14852,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -15534,7 +14904,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -15586,7 +14956,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -15638,7 +15008,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -15690,7 +15060,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -15742,7 +15112,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -15794,7 +15164,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -15846,7 +15216,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -15898,7 +15268,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -15950,7 +15320,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -16002,7 +15372,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -16054,7 +15424,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -16106,7 +15476,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -16158,7 +15528,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -16210,7 +15580,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -16262,7 +15632,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -16314,7 +15684,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -16366,7 +15736,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -16418,7 +15788,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -16470,7 +15840,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -16522,7 +15892,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -16574,7 +15944,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -16626,7 +15996,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -16678,7 +16048,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -16730,7 +16100,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -16782,7 +16152,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -16834,7 +16204,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -16886,7 +16256,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -16938,7 +16308,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -16990,7 +16360,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -17042,7 +16412,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -17094,7 +16464,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -17146,7 +16516,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -17198,7 +16568,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -17250,7 +16620,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -17302,7 +16672,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -17354,7 +16724,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -17406,7 +16776,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -17458,7 +16828,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -17510,7 +16880,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -17562,7 +16932,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -17614,7 +16984,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -17666,7 +17036,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -17718,7 +17088,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -17770,7 +17140,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -17822,7 +17192,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -17874,7 +17244,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>

--- a/Documentos/Mapeamento das Fontes de Dados/CADASTRO/CADASTRO.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/CADASTRO/CADASTRO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\04 - PROJETOS\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\CADASTRO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\04 - PROJETOS\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\CADASTRO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A812816-506A-4B3A-8088-6B8B3DD8BEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0282B49-44A3-4F39-BAB5-7129A3DF1D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{D97F085D-39BF-40A8-913E-D715D9E5FECC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{D97F085D-39BF-40A8-913E-D715D9E5FECC}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -976,7 +976,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1009,6 +1009,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1082,7 +1090,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1113,6 +1121,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5096,22 +5107,22 @@
       <selection activeCell="B27" sqref="B27:B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="2"/>
+    <col min="7" max="7" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5143,7 +5154,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>133</v>
       </c>
@@ -5175,7 +5186,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>168</v>
       </c>
@@ -5196,7 +5207,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>169</v>
       </c>
@@ -5213,7 +5224,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>170</v>
       </c>
@@ -5224,7 +5235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>171</v>
       </c>
@@ -5235,7 +5246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>130</v>
       </c>
@@ -5246,7 +5257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>192</v>
       </c>
@@ -5257,7 +5268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>131</v>
       </c>
@@ -5268,7 +5279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>110</v>
       </c>
@@ -5279,7 +5290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>93</v>
       </c>
@@ -5290,7 +5301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>95</v>
       </c>
@@ -5301,7 +5312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>114</v>
       </c>
@@ -5312,7 +5323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>115</v>
       </c>
@@ -5323,7 +5334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>91</v>
       </c>
@@ -5334,7 +5345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>116</v>
       </c>
@@ -5345,7 +5356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>175</v>
       </c>
@@ -5356,7 +5367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>176</v>
       </c>
@@ -5367,7 +5378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>118</v>
       </c>
@@ -5378,7 +5389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>144</v>
       </c>
@@ -5389,7 +5400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>127</v>
       </c>
@@ -5400,7 +5411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>188</v>
       </c>
@@ -5411,7 +5422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>189</v>
       </c>
@@ -5422,7 +5433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>186</v>
       </c>
@@ -5433,7 +5444,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>164</v>
       </c>
@@ -5444,7 +5455,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>165</v>
       </c>
@@ -5455,7 +5466,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>166</v>
       </c>
@@ -5466,7 +5477,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>167</v>
       </c>
@@ -5477,7 +5488,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>121</v>
       </c>
@@ -5488,7 +5499,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>122</v>
       </c>
@@ -5499,7 +5510,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>179</v>
       </c>
@@ -5510,7 +5521,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>119</v>
       </c>
@@ -5521,7 +5532,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>172</v>
       </c>
@@ -5532,7 +5543,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>173</v>
       </c>
@@ -5543,7 +5554,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>174</v>
       </c>
@@ -5554,7 +5565,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>141</v>
       </c>
@@ -5565,7 +5576,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>120</v>
       </c>
@@ -5576,7 +5587,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>180</v>
       </c>
@@ -5587,7 +5598,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>181</v>
       </c>
@@ -5598,7 +5609,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>191</v>
       </c>
@@ -5609,7 +5620,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>123</v>
       </c>
@@ -5620,7 +5631,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>184</v>
       </c>
@@ -5631,7 +5642,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>182</v>
       </c>
@@ -5642,7 +5653,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>183</v>
       </c>
@@ -5653,7 +5664,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>143</v>
       </c>
@@ -5664,7 +5675,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>128</v>
       </c>
@@ -5675,7 +5686,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>94</v>
       </c>
@@ -5686,7 +5697,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>107</v>
       </c>
@@ -5697,7 +5708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>104</v>
       </c>
@@ -5708,7 +5719,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>103</v>
       </c>
@@ -5719,7 +5730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>105</v>
       </c>
@@ -5730,7 +5741,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>96</v>
       </c>
@@ -5741,7 +5752,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>145</v>
       </c>
@@ -5752,7 +5763,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>134</v>
       </c>
@@ -5763,7 +5774,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>146</v>
       </c>
@@ -5774,7 +5785,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>132</v>
       </c>
@@ -5785,7 +5796,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>160</v>
       </c>
@@ -5796,7 +5807,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>161</v>
       </c>
@@ -5807,7 +5818,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>162</v>
       </c>
@@ -5818,7 +5829,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>163</v>
       </c>
@@ -5829,7 +5840,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>142</v>
       </c>
@@ -5840,7 +5851,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>129</v>
       </c>
@@ -5851,7 +5862,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>124</v>
       </c>
@@ -5862,7 +5873,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>126</v>
       </c>
@@ -5873,7 +5884,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>92</v>
       </c>
@@ -5884,7 +5895,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>112</v>
       </c>
@@ -5895,7 +5906,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>177</v>
       </c>
@@ -5906,7 +5917,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>178</v>
       </c>
@@ -5917,7 +5928,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>153</v>
       </c>
@@ -5928,7 +5939,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>135</v>
       </c>
@@ -5939,7 +5950,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>154</v>
       </c>
@@ -5950,7 +5961,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>155</v>
       </c>
@@ -5961,7 +5972,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>156</v>
       </c>
@@ -5972,7 +5983,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>157</v>
       </c>
@@ -5983,7 +5994,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>147</v>
       </c>
@@ -5994,7 +6005,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>148</v>
       </c>
@@ -6005,7 +6016,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>149</v>
       </c>
@@ -6016,7 +6027,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>150</v>
       </c>
@@ -6027,7 +6038,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>151</v>
       </c>
@@ -6038,7 +6049,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>152</v>
       </c>
@@ -6049,7 +6060,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>159</v>
       </c>
@@ -6060,7 +6071,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>187</v>
       </c>
@@ -6071,7 +6082,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>109</v>
       </c>
@@ -6082,7 +6093,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>111</v>
       </c>
@@ -6093,7 +6104,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>106</v>
       </c>
@@ -6104,7 +6115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>108</v>
       </c>
@@ -6128,16 +6139,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>92</v>
       </c>
@@ -6154,7 +6165,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>454</v>
       </c>
@@ -6171,7 +6182,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>461</v>
       </c>
@@ -6188,7 +6199,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>353</v>
       </c>
@@ -6205,7 +6216,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>335</v>
       </c>
@@ -6222,7 +6233,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>211</v>
       </c>
@@ -6239,7 +6250,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>346</v>
       </c>
@@ -6256,7 +6267,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>413</v>
       </c>
@@ -6273,7 +6284,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>319</v>
       </c>
@@ -6290,7 +6301,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>492</v>
       </c>
@@ -6307,7 +6318,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>415</v>
       </c>
@@ -6324,7 +6335,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>416</v>
       </c>
@@ -6341,7 +6352,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>417</v>
       </c>
@@ -6358,7 +6369,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>418</v>
       </c>
@@ -6375,7 +6386,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>419</v>
       </c>
@@ -6392,7 +6403,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>460</v>
       </c>
@@ -6409,7 +6420,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>340</v>
       </c>
@@ -6426,7 +6437,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>515</v>
       </c>
@@ -6443,7 +6454,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>516</v>
       </c>
@@ -6460,7 +6471,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>517</v>
       </c>
@@ -6477,7 +6488,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>518</v>
       </c>
@@ -6494,7 +6505,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>519</v>
       </c>
@@ -6511,7 +6522,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>520</v>
       </c>
@@ -6528,7 +6539,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>543</v>
       </c>
@@ -6545,7 +6556,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>547</v>
       </c>
@@ -6562,7 +6573,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>548</v>
       </c>
@@ -6579,7 +6590,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>573</v>
       </c>
@@ -6596,7 +6607,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>574</v>
       </c>
@@ -6613,7 +6624,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>575</v>
       </c>
@@ -6643,31 +6654,31 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="31" style="2" customWidth="1"/>
     <col min="7" max="7" width="23" style="2" customWidth="1"/>
-    <col min="8" max="8" width="34.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.33203125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.21875" style="2"/>
+    <col min="8" max="8" width="34.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>150</v>
       </c>
@@ -6717,7 +6728,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -6763,7 +6774,7 @@
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -6809,7 +6820,7 @@
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -6855,7 +6866,7 @@
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -6901,7 +6912,7 @@
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -6947,7 +6958,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -6993,7 +7004,7 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -7039,7 +7050,7 @@
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -7085,7 +7096,7 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -7131,7 +7142,7 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -7177,7 +7188,7 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -7223,7 +7234,7 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -7269,7 +7280,7 @@
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -7315,7 +7326,7 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -7361,7 +7372,7 @@
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -7407,7 +7418,7 @@
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -7453,7 +7464,7 @@
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -7499,7 +7510,7 @@
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -7521,7 +7532,7 @@
       <c r="G19" s="1">
         <v>206</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="12" t="s">
         <v>4</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -7545,7 +7556,7 @@
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -7591,7 +7602,7 @@
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -7637,7 +7648,7 @@
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -7683,7 +7694,7 @@
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -7729,7 +7740,7 @@
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -7775,7 +7786,7 @@
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -7821,7 +7832,7 @@
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -7867,7 +7878,7 @@
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -7913,7 +7924,7 @@
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -7959,7 +7970,7 @@
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -8005,7 +8016,7 @@
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -8051,7 +8062,7 @@
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -8097,7 +8108,7 @@
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -8143,7 +8154,7 @@
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -8189,7 +8200,7 @@
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -8235,7 +8246,7 @@
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -8281,7 +8292,7 @@
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -8327,7 +8338,7 @@
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -8373,7 +8384,7 @@
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -8419,7 +8430,7 @@
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -8465,7 +8476,7 @@
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -8511,7 +8522,7 @@
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -8557,7 +8568,7 @@
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -8603,7 +8614,7 @@
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -8649,7 +8660,7 @@
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -8695,7 +8706,7 @@
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -8741,7 +8752,7 @@
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -8787,7 +8798,7 @@
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -8833,7 +8844,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -8879,7 +8890,7 @@
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -8925,7 +8936,7 @@
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -8971,7 +8982,7 @@
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -9017,7 +9028,7 @@
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -9063,7 +9074,7 @@
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -9109,7 +9120,7 @@
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -9155,7 +9166,7 @@
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -9201,7 +9212,7 @@
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -9247,7 +9258,7 @@
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -9293,7 +9304,7 @@
       <c r="O57" s="6"/>
       <c r="P57" s="6"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -9339,7 +9350,7 @@
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -9385,7 +9396,7 @@
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -9431,7 +9442,7 @@
       <c r="O60" s="6"/>
       <c r="P60" s="6"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -9477,7 +9488,7 @@
       <c r="O61" s="6"/>
       <c r="P61" s="6"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -9523,7 +9534,7 @@
       <c r="O62" s="6"/>
       <c r="P62" s="6"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -9569,7 +9580,7 @@
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -9615,7 +9626,7 @@
       <c r="O64" s="6"/>
       <c r="P64" s="6"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -9661,7 +9672,7 @@
       <c r="O65" s="6"/>
       <c r="P65" s="6"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -9707,7 +9718,7 @@
       <c r="O66" s="6"/>
       <c r="P66" s="6"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -9753,7 +9764,7 @@
       <c r="O67" s="6"/>
       <c r="P67" s="6"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -9799,7 +9810,7 @@
       <c r="O68" s="6"/>
       <c r="P68" s="6"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -9845,7 +9856,7 @@
       <c r="O69" s="6"/>
       <c r="P69" s="6"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -9891,7 +9902,7 @@
       <c r="O70" s="6"/>
       <c r="P70" s="6"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -9937,7 +9948,7 @@
       <c r="O71" s="6"/>
       <c r="P71" s="6"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -9983,7 +9994,7 @@
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -10029,7 +10040,7 @@
       <c r="O73" s="6"/>
       <c r="P73" s="6"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -10075,7 +10086,7 @@
       <c r="O74" s="6"/>
       <c r="P74" s="6"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -10121,7 +10132,7 @@
       <c r="O75" s="6"/>
       <c r="P75" s="6"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -10167,7 +10178,7 @@
       <c r="O76" s="6"/>
       <c r="P76" s="6"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -10213,7 +10224,7 @@
       <c r="O77" s="6"/>
       <c r="P77" s="6"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -10259,7 +10270,7 @@
       <c r="O78" s="6"/>
       <c r="P78" s="6"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -10305,7 +10316,7 @@
       <c r="O79" s="6"/>
       <c r="P79" s="6"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -10351,7 +10362,7 @@
       <c r="O80" s="6"/>
       <c r="P80" s="6"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -10397,7 +10408,7 @@
       <c r="O81" s="6"/>
       <c r="P81" s="6"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -10443,7 +10454,7 @@
       <c r="O82" s="6"/>
       <c r="P82" s="6"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -10489,7 +10500,7 @@
       <c r="O83" s="6"/>
       <c r="P83" s="6"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -10535,7 +10546,7 @@
       <c r="O84" s="6"/>
       <c r="P84" s="6"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -10581,7 +10592,7 @@
       <c r="O85" s="6"/>
       <c r="P85" s="6"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -10627,7 +10638,7 @@
       <c r="O86" s="6"/>
       <c r="P86" s="6"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -10673,7 +10684,7 @@
       <c r="O87" s="6"/>
       <c r="P87" s="6"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -10719,7 +10730,7 @@
       <c r="O88" s="6"/>
       <c r="P88" s="6"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -10765,7 +10776,7 @@
       <c r="O89" s="6"/>
       <c r="P89" s="6"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -10811,7 +10822,7 @@
       <c r="O90" s="6"/>
       <c r="P90" s="6"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -10857,7 +10868,7 @@
       <c r="O91" s="6"/>
       <c r="P91" s="6"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -10903,7 +10914,7 @@
       <c r="O92" s="6"/>
       <c r="P92" s="6"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -10949,7 +10960,7 @@
       <c r="O93" s="6"/>
       <c r="P93" s="6"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -10995,7 +11006,7 @@
       <c r="O94" s="6"/>
       <c r="P94" s="6"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -11041,7 +11052,7 @@
       <c r="O95" s="6"/>
       <c r="P95" s="6"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -11087,7 +11098,7 @@
       <c r="O96" s="6"/>
       <c r="P96" s="6"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -11133,7 +11144,7 @@
       <c r="O97" s="6"/>
       <c r="P97" s="6"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -11179,7 +11190,7 @@
       <c r="O98" s="6"/>
       <c r="P98" s="6"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -11225,7 +11236,7 @@
       <c r="O99" s="6"/>
       <c r="P99" s="6"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -11271,7 +11282,7 @@
       <c r="O100" s="6"/>
       <c r="P100" s="6"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -11317,7 +11328,7 @@
       <c r="O101" s="6"/>
       <c r="P101" s="6"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -11363,7 +11374,7 @@
       <c r="O102" s="6"/>
       <c r="P102" s="6"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -11409,7 +11420,7 @@
       <c r="O103" s="6"/>
       <c r="P103" s="6"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -11455,7 +11466,7 @@
       <c r="O104" s="6"/>
       <c r="P104" s="6"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -11501,7 +11512,7 @@
       <c r="O105" s="6"/>
       <c r="P105" s="6"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -11561,15 +11572,15 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>222</v>
       </c>
@@ -11580,7 +11591,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>150</v>
       </c>
@@ -11591,7 +11602,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>135</v>
       </c>
@@ -11602,7 +11613,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>219</v>
       </c>
@@ -11613,7 +11624,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>220</v>
       </c>
@@ -11624,7 +11635,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>151</v>
       </c>
@@ -11635,7 +11646,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>152</v>
       </c>
@@ -11646,7 +11657,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>153</v>
       </c>
@@ -11657,7 +11668,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>154</v>
       </c>
@@ -11668,7 +11679,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>155</v>
       </c>
@@ -11692,88 +11703,88 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="43.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="30" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="36" max="38" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="48" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="35.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="30" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="38" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="48" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="16" bestFit="1" customWidth="1"/>
-    <col min="51" max="54" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="58" max="63" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="67" max="70" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="71" max="76" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="51" max="54" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="63" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="70" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="71" max="76" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="23" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="83" max="83" width="4" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="86" max="87" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="86" max="87" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="100" max="100" width="6" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="103" max="103" width="26" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="111" max="111" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F2" s="7" t="s">
         <v>156</v>
       </c>
@@ -11781,87 +11792,87 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F4" s="7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F5" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F6" s="9" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F7" s="8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F8" s="9" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F9" s="8" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="10" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F10" s="9" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="11" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F11" s="8" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F12" s="9" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F13" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F14" s="9" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F15" s="8" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="16" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F16" s="9" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F17" s="9" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F18" s="9" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F19" s="9" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F20" s="8" t="s">
         <v>217</v>
       </c>
@@ -11879,17 +11890,17 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.44140625" style="1"/>
+    <col min="1" max="1" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>281</v>
       </c>
@@ -11906,7 +11917,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>150</v>
       </c>
@@ -11923,7 +11934,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>135</v>
       </c>
@@ -11937,7 +11948,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>219</v>
       </c>
@@ -11951,7 +11962,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>220</v>
       </c>
@@ -11965,7 +11976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>151</v>
       </c>
@@ -11979,7 +11990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>152</v>
       </c>
@@ -11993,7 +12004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>153</v>
       </c>
@@ -12007,7 +12018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>154</v>
       </c>
@@ -12021,7 +12032,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>155</v>
       </c>
@@ -12035,7 +12046,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>156</v>
       </c>
@@ -12049,7 +12060,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>158</v>
       </c>
@@ -12063,7 +12074,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>159</v>
       </c>
@@ -12077,7 +12088,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>160</v>
       </c>
@@ -12091,7 +12102,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>133</v>
       </c>
@@ -12105,7 +12116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>164</v>
       </c>
@@ -12119,7 +12130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>165</v>
       </c>
@@ -12133,7 +12144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
     </row>
@@ -12148,22 +12159,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="2" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.21875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="2" customWidth="1"/>
     <col min="12" max="12" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.21875" style="2"/>
+    <col min="13" max="13" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>151</v>
       </c>
@@ -12183,7 +12194,7 @@
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -12199,7 +12210,7 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>216</v>
       </c>
@@ -12216,7 +12227,7 @@
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>210</v>
       </c>
@@ -12234,7 +12245,7 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>209</v>
       </c>
@@ -12252,7 +12263,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -12270,7 +12281,7 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>51</v>
       </c>
@@ -12288,7 +12299,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>76</v>
       </c>
@@ -12306,7 +12317,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>211</v>
       </c>
@@ -12324,7 +12335,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>138</v>
       </c>
@@ -12340,7 +12351,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>184</v>
       </c>
@@ -12356,7 +12367,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>217</v>
       </c>
@@ -12367,7 +12378,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -12376,7 +12387,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -12385,7 +12396,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -12400,7 +12411,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -12415,7 +12426,7 @@
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -12430,7 +12441,7 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -12445,7 +12456,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -12458,7 +12469,7 @@
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -12471,7 +12482,7 @@
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -12484,7 +12495,7 @@
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -12497,7 +12508,7 @@
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -12510,7 +12521,7 @@
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -12523,7 +12534,7 @@
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -12536,7 +12547,7 @@
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -12549,7 +12560,7 @@
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -12562,7 +12573,7 @@
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -12575,7 +12586,7 @@
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -12588,7 +12599,7 @@
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -12601,7 +12612,7 @@
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -12614,7 +12625,7 @@
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -12627,7 +12638,7 @@
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -12640,7 +12651,7 @@
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -12653,7 +12664,7 @@
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -12666,7 +12677,7 @@
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -12679,7 +12690,7 @@
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -12692,7 +12703,7 @@
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -12705,7 +12716,7 @@
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -12718,7 +12729,7 @@
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -12731,7 +12742,7 @@
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -12744,7 +12755,7 @@
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -12757,7 +12768,7 @@
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -12770,7 +12781,7 @@
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -12783,7 +12794,7 @@
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -12796,7 +12807,7 @@
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -12809,7 +12820,7 @@
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -12822,7 +12833,7 @@
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -12835,7 +12846,7 @@
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -12848,7 +12859,7 @@
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -12861,7 +12872,7 @@
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -12874,7 +12885,7 @@
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -12887,7 +12898,7 @@
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -12900,7 +12911,7 @@
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -12913,7 +12924,7 @@
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -12926,7 +12937,7 @@
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -12939,7 +12950,7 @@
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -12952,7 +12963,7 @@
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -12965,7 +12976,7 @@
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -12978,7 +12989,7 @@
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -12991,7 +13002,7 @@
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -13004,7 +13015,7 @@
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -13017,7 +13028,7 @@
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -13030,7 +13041,7 @@
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -13043,7 +13054,7 @@
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -13056,7 +13067,7 @@
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -13069,7 +13080,7 @@
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -13082,7 +13093,7 @@
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -13095,7 +13106,7 @@
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -13108,7 +13119,7 @@
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -13121,7 +13132,7 @@
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -13134,7 +13145,7 @@
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -13147,7 +13158,7 @@
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -13160,7 +13171,7 @@
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -13173,7 +13184,7 @@
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -13186,7 +13197,7 @@
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -13213,30 +13224,30 @@
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.21875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="19.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="10.21875" style="2"/>
+    <col min="17" max="17" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="10.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>150</v>
       </c>
@@ -13292,7 +13303,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -13337,14 +13348,14 @@
       </c>
       <c r="Q2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -13389,14 +13400,14 @@
       </c>
       <c r="Q3" s="6">
         <f t="shared" ref="Q3:R18" ca="1" si="0">TODAY()</f>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -13441,14 +13452,14 @@
       </c>
       <c r="Q4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -13493,14 +13504,14 @@
       </c>
       <c r="Q5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -13545,14 +13556,14 @@
       </c>
       <c r="Q6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -13597,14 +13608,14 @@
       </c>
       <c r="Q7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -13649,14 +13660,14 @@
       </c>
       <c r="Q8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -13701,14 +13712,14 @@
       </c>
       <c r="Q9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -13753,14 +13764,14 @@
       </c>
       <c r="Q10" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R10" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -13805,14 +13816,14 @@
       </c>
       <c r="Q11" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R11" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -13857,14 +13868,14 @@
       </c>
       <c r="Q12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -13909,14 +13920,14 @@
       </c>
       <c r="Q13" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R13" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -13961,14 +13972,14 @@
       </c>
       <c r="Q14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -14013,14 +14024,14 @@
       </c>
       <c r="Q15" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R15" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -14065,14 +14076,14 @@
       </c>
       <c r="Q16" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R16" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -14117,14 +14128,14 @@
       </c>
       <c r="Q17" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R17" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -14169,14 +14180,14 @@
       </c>
       <c r="Q18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -14221,14 +14232,14 @@
       </c>
       <c r="Q19" s="6">
         <f t="shared" ref="Q19:R78" ca="1" si="1">TODAY()</f>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R19" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -14273,14 +14284,14 @@
       </c>
       <c r="Q20" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R20" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -14325,14 +14336,14 @@
       </c>
       <c r="Q21" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R21" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -14377,14 +14388,14 @@
       </c>
       <c r="Q22" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R22" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -14429,14 +14440,14 @@
       </c>
       <c r="Q23" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R23" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -14481,14 +14492,14 @@
       </c>
       <c r="Q24" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R24" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -14533,14 +14544,14 @@
       </c>
       <c r="Q25" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R25" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -14585,14 +14596,14 @@
       </c>
       <c r="Q26" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R26" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -14637,14 +14648,14 @@
       </c>
       <c r="Q27" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R27" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -14689,14 +14700,14 @@
       </c>
       <c r="Q28" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R28" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -14741,14 +14752,14 @@
       </c>
       <c r="Q29" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R29" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -14793,14 +14804,14 @@
       </c>
       <c r="Q30" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R30" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -14845,14 +14856,14 @@
       </c>
       <c r="Q31" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R31" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -14897,14 +14908,14 @@
       </c>
       <c r="Q32" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R32" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -14949,14 +14960,14 @@
       </c>
       <c r="Q33" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R33" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -15001,14 +15012,14 @@
       </c>
       <c r="Q34" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R34" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -15053,14 +15064,14 @@
       </c>
       <c r="Q35" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R35" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -15105,14 +15116,14 @@
       </c>
       <c r="Q36" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R36" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -15157,14 +15168,14 @@
       </c>
       <c r="Q37" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R37" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -15209,14 +15220,14 @@
       </c>
       <c r="Q38" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R38" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -15261,14 +15272,14 @@
       </c>
       <c r="Q39" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R39" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -15313,14 +15324,14 @@
       </c>
       <c r="Q40" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R40" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -15365,14 +15376,14 @@
       </c>
       <c r="Q41" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R41" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -15417,14 +15428,14 @@
       </c>
       <c r="Q42" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R42" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -15469,14 +15480,14 @@
       </c>
       <c r="Q43" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R43" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -15521,14 +15532,14 @@
       </c>
       <c r="Q44" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R44" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -15573,14 +15584,14 @@
       </c>
       <c r="Q45" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R45" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -15625,14 +15636,14 @@
       </c>
       <c r="Q46" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R46" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -15677,14 +15688,14 @@
       </c>
       <c r="Q47" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R47" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -15729,14 +15740,14 @@
       </c>
       <c r="Q48" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R48" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -15781,14 +15792,14 @@
       </c>
       <c r="Q49" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R49" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -15833,14 +15844,14 @@
       </c>
       <c r="Q50" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R50" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -15885,14 +15896,14 @@
       </c>
       <c r="Q51" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R51" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -15937,14 +15948,14 @@
       </c>
       <c r="Q52" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R52" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -15989,14 +16000,14 @@
       </c>
       <c r="Q53" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R53" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -16041,14 +16052,14 @@
       </c>
       <c r="Q54" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R54" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -16093,14 +16104,14 @@
       </c>
       <c r="Q55" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R55" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -16145,14 +16156,14 @@
       </c>
       <c r="Q56" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R56" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -16197,14 +16208,14 @@
       </c>
       <c r="Q57" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R57" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -16249,14 +16260,14 @@
       </c>
       <c r="Q58" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R58" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -16301,14 +16312,14 @@
       </c>
       <c r="Q59" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R59" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -16353,14 +16364,14 @@
       </c>
       <c r="Q60" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R60" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -16405,14 +16416,14 @@
       </c>
       <c r="Q61" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R61" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -16457,14 +16468,14 @@
       </c>
       <c r="Q62" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R62" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -16509,14 +16520,14 @@
       </c>
       <c r="Q63" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R63" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -16561,14 +16572,14 @@
       </c>
       <c r="Q64" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R64" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -16613,14 +16624,14 @@
       </c>
       <c r="Q65" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R65" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -16665,14 +16676,14 @@
       </c>
       <c r="Q66" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R66" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -16717,14 +16728,14 @@
       </c>
       <c r="Q67" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R67" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -16769,14 +16780,14 @@
       </c>
       <c r="Q68" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R68" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -16821,14 +16832,14 @@
       </c>
       <c r="Q69" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R69" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -16873,14 +16884,14 @@
       </c>
       <c r="Q70" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R70" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -16925,14 +16936,14 @@
       </c>
       <c r="Q71" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R71" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -16977,14 +16988,14 @@
       </c>
       <c r="Q72" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R72" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -17029,14 +17040,14 @@
       </c>
       <c r="Q73" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R73" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -17081,14 +17092,14 @@
       </c>
       <c r="Q74" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R74" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -17133,14 +17144,14 @@
       </c>
       <c r="Q75" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R75" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -17185,14 +17196,14 @@
       </c>
       <c r="Q76" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R76" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -17237,14 +17248,14 @@
       </c>
       <c r="Q77" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R77" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -17289,11 +17300,11 @@
       </c>
       <c r="Q78" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
       <c r="R78" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45495</v>
+        <v>45504</v>
       </c>
     </row>
   </sheetData>

--- a/Documentos/Mapeamento das Fontes de Dados/CADASTRO/CADASTRO.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/CADASTRO/CADASTRO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\04 - PROJETOS\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\CADASTRO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0282B49-44A3-4F39-BAB5-7129A3DF1D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25E0601-6980-4C26-9F72-48DEFE753F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{D97F085D-39BF-40A8-913E-D715D9E5FECC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{D97F085D-39BF-40A8-913E-D715D9E5FECC}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2327" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2327" uniqueCount="307">
   <si>
     <t>CONT_ID</t>
   </si>
@@ -970,6 +970,9 @@
   </si>
   <si>
     <t>datetime2</t>
+  </si>
+  <si>
+    <t>VCOM</t>
   </si>
 </sst>
 </file>
@@ -6654,7 +6657,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6671,9 +6674,9 @@
     <col min="10" max="10" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.28515625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="10.28515625" style="2"/>
   </cols>
@@ -10115,7 +10118,7 @@
         <v>187</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>188</v>
+        <v>306</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>189</v>
